--- a/sriramModel-nelson-atypical-patientID_7-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_7-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9907255968658754</v>
+        <v>1.070671181885308</v>
       </c>
       <c r="C2">
-        <v>1.276762156130256</v>
+        <v>1.055130215135578</v>
       </c>
       <c r="D2">
-        <v>1.157689396098761</v>
+        <v>1.076212385874908</v>
       </c>
       <c r="E2">
-        <v>1.056847614420704</v>
+        <v>1.106784635219829</v>
       </c>
       <c r="F2">
-        <v>1.084529002053148</v>
+        <v>1.037906756391692</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9808263733946803</v>
+        <v>1.139475259411443</v>
       </c>
       <c r="C3">
-        <v>1.545107140899503</v>
+        <v>1.10874883883591</v>
       </c>
       <c r="D3">
-        <v>1.314581729648345</v>
+        <v>1.149019431778857</v>
       </c>
       <c r="E3">
-        <v>1.113349713739921</v>
+        <v>1.210657800301853</v>
       </c>
       <c r="F3">
-        <v>1.167316821717669</v>
+        <v>1.074278255050059</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9705380142494312</v>
+        <v>1.20642775491466</v>
       </c>
       <c r="C4">
-        <v>1.803043143851481</v>
+        <v>1.160876001858044</v>
       </c>
       <c r="D4">
-        <v>1.470715343379572</v>
+        <v>1.218574997389387</v>
       </c>
       <c r="E4">
-        <v>1.169500357893158</v>
+        <v>1.311619725248133</v>
       </c>
       <c r="F4">
-        <v>1.248069361915779</v>
+        <v>1.109147739879337</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9599992507041845</v>
+        <v>1.271544842245666</v>
       </c>
       <c r="C5">
-        <v>2.048638709486891</v>
+        <v>1.211528039613856</v>
       </c>
       <c r="D5">
-        <v>1.626117931003869</v>
+        <v>1.285007453436757</v>
       </c>
       <c r="E5">
-        <v>1.225274223589969</v>
+        <v>1.409674094513865</v>
       </c>
       <c r="F5">
-        <v>1.326402157337963</v>
+        <v>1.142549386675875</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9492945465665731</v>
+        <v>1.334843365808967</v>
       </c>
       <c r="C6">
-        <v>2.280188722615653</v>
+        <v>1.260718431596388</v>
       </c>
       <c r="D6">
-        <v>1.780804784912185</v>
+        <v>1.348425870304883</v>
       </c>
       <c r="E6">
-        <v>1.280603741129461</v>
+        <v>1.504828112098337</v>
       </c>
       <c r="F6">
-        <v>1.401841821616878</v>
+        <v>1.174518143451688</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9384786762291689</v>
+        <v>1.396340875339631</v>
       </c>
       <c r="C7">
-        <v>2.496355094547344</v>
+        <v>1.308458402642308</v>
       </c>
       <c r="D7">
-        <v>1.934775645463457</v>
+        <v>1.408924703925645</v>
       </c>
       <c r="E7">
-        <v>1.335336790014315</v>
+        <v>1.597092565489038</v>
       </c>
       <c r="F7">
-        <v>1.473838065144812</v>
+        <v>1.205089561564475</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.927589151903743</v>
+        <v>1.456055618147917</v>
       </c>
       <c r="C8">
-        <v>2.696259031592037</v>
+        <v>1.354757437142906</v>
       </c>
       <c r="D8">
-        <v>2.088009890191357</v>
+        <v>1.466587000664169</v>
       </c>
       <c r="E8">
-        <v>1.38916623161643</v>
+        <v>1.686481895366771</v>
       </c>
       <c r="F8">
-        <v>1.541788286689154</v>
+        <v>1.234299612953838</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9166528524542252</v>
+        <v>1.51400654467154</v>
       </c>
       <c r="C9">
-        <v>2.879514008967668</v>
+        <v>1.399623794240311</v>
       </c>
       <c r="D9">
-        <v>2.240459606200933</v>
+        <v>1.521486793002059</v>
       </c>
       <c r="E9">
-        <v>1.441527293138526</v>
+        <v>1.773014215862893</v>
       </c>
       <c r="F9">
-        <v>1.605073816072316</v>
+        <v>1.262184554343919</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9056896589230422</v>
+        <v>1.570213310597904</v>
       </c>
       <c r="C10">
-        <v>3.046200164767068</v>
+        <v>1.443064863818144</v>
       </c>
       <c r="D10">
-        <v>2.392039763213506</v>
+        <v>1.573691171633555</v>
       </c>
       <c r="E10">
-        <v>1.491480161907609</v>
+        <v>1.856711285865306</v>
       </c>
       <c r="F10">
-        <v>1.663103697506035</v>
+        <v>1.28878076788577</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8947147371544839</v>
+        <v>1.624696272294035</v>
       </c>
       <c r="C11">
-        <v>3.196796954754961</v>
+        <v>1.485087436242144</v>
       </c>
       <c r="D11">
-        <v>2.542614900367621</v>
+        <v>1.623261813656726</v>
       </c>
       <c r="E11">
-        <v>1.537642875219634</v>
+        <v>1.937598453349265</v>
       </c>
       <c r="F11">
-        <v>1.715360529791526</v>
+        <v>1.314124630856392</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8837400177939647</v>
+        <v>1.677476475458747</v>
       </c>
       <c r="C12">
-        <v>3.332091597135872</v>
+        <v>1.525697918836213</v>
       </c>
       <c r="D12">
-        <v>2.691981748933364</v>
+        <v>1.670256033326641</v>
       </c>
       <c r="E12">
-        <v>1.578301315745563</v>
+        <v>2.015704542889389</v>
       </c>
       <c r="F12">
-        <v>1.761444887505306</v>
+        <v>1.338252393526543</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8727750095312725</v>
+        <v>1.728575638479583</v>
       </c>
       <c r="C13">
-        <v>3.453082283785185</v>
+        <v>1.564902531506256</v>
       </c>
       <c r="D13">
-        <v>2.839847620574524</v>
+        <v>1.714727676533752</v>
       </c>
       <c r="E13">
-        <v>1.611799865676437</v>
+        <v>2.091061722692193</v>
       </c>
       <c r="F13">
-        <v>1.801115463235669</v>
+        <v>1.361200072290301</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8618274479236394</v>
+        <v>1.778016131649712</v>
       </c>
       <c r="C14">
-        <v>3.560887927662207</v>
+        <v>1.602707477373582</v>
       </c>
       <c r="D14">
-        <v>2.985805189676476</v>
+        <v>1.756727913379615</v>
       </c>
       <c r="E14">
-        <v>1.63711465391978</v>
+        <v>2.16370536389259</v>
       </c>
       <c r="F14">
-        <v>1.834318940041916</v>
+        <v>1.383003337165033</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8509037637700146</v>
+        <v>1.825820953136955</v>
       </c>
       <c r="C15">
-        <v>3.65667488020907</v>
+        <v>1.639119081030477</v>
       </c>
       <c r="D15">
-        <v>3.129305663113014</v>
+        <v>1.796305967616798</v>
       </c>
       <c r="E15">
-        <v>1.654244999227174</v>
+        <v>2.233673833872534</v>
       </c>
       <c r="F15">
-        <v>1.861196250675779</v>
+        <v>1.403697460642329</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.840009377282104</v>
+        <v>1.872013700089871</v>
       </c>
       <c r="C16">
-        <v>3.741600607061088</v>
+        <v>1.674143900520092</v>
       </c>
       <c r="D16">
-        <v>3.269634367724249</v>
+        <v>1.833509345269415</v>
       </c>
       <c r="E16">
-        <v>1.664129217611624</v>
+        <v>2.301008308934306</v>
       </c>
       <c r="F16">
-        <v>1.882059669236754</v>
+        <v>1.423317248569554</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8291488988150868</v>
+        <v>1.916618531975859</v>
       </c>
       <c r="C17">
-        <v>3.816774568310798</v>
+        <v>1.707788820122458</v>
       </c>
       <c r="D17">
-        <v>3.405895375204687</v>
+        <v>1.868384191922081</v>
       </c>
       <c r="E17">
-        <v>1.668200364443882</v>
+        <v>2.365752563713086</v>
       </c>
       <c r="F17">
-        <v>1.897349248805468</v>
+        <v>1.441896948558699</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8183262971740911</v>
+        <v>1.959660159646875</v>
       </c>
       <c r="C18">
-        <v>3.883234059605661</v>
+        <v>1.740061127471312</v>
       </c>
       <c r="D18">
-        <v>3.537014307044707</v>
+        <v>1.900975660605738</v>
       </c>
       <c r="E18">
-        <v>1.667929258863527</v>
+        <v>2.427952752444563</v>
       </c>
       <c r="F18">
-        <v>1.907582956785384</v>
+        <v>1.459470162298486</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8075450380818491</v>
+        <v>2.001163797128848</v>
       </c>
       <c r="C19">
-        <v>3.941931281308763</v>
+        <v>1.770968577598778</v>
       </c>
       <c r="D19">
-        <v>3.661769577498673</v>
+        <v>1.931328189404473</v>
       </c>
       <c r="E19">
-        <v>1.664562399191943</v>
+        <v>2.487657169435149</v>
       </c>
       <c r="F19">
-        <v>1.913311878597284</v>
+        <v>1.476069824871002</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7968081840360107</v>
+        <v>2.041155110082515</v>
       </c>
       <c r="C20">
-        <v>3.993728367529947</v>
+        <v>1.800519441887763</v>
       </c>
       <c r="D20">
-        <v>3.778860000766893</v>
+        <v>1.959485657730968</v>
       </c>
       <c r="E20">
-        <v>1.6590487153355</v>
+        <v>2.544916014022353</v>
       </c>
       <c r="F20">
-        <v>1.915084023332828</v>
+        <v>1.491728192062336</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7861184624928823</v>
+        <v>2.079660222710321</v>
       </c>
       <c r="C21">
-        <v>4.039398220660754</v>
+        <v>1.828722550669032</v>
       </c>
       <c r="D21">
-        <v>3.887009457348159</v>
+        <v>1.985491490766581</v>
       </c>
       <c r="E21">
-        <v>1.652068230092761</v>
+        <v>2.599781154979404</v>
       </c>
       <c r="F21">
-        <v>1.913420656426159</v>
+        <v>1.506476804591502</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7754783201944732</v>
+        <v>2.116705606682588</v>
       </c>
       <c r="C22">
-        <v>4.079628738570065</v>
+        <v>1.85558732568364</v>
       </c>
       <c r="D22">
-        <v>3.985097011326135</v>
+        <v>2.009388762161978</v>
       </c>
       <c r="E22">
-        <v>1.644092860066579</v>
+        <v>2.652305894075761</v>
       </c>
       <c r="F22">
-        <v>1.908801397592378</v>
+        <v>1.520346448852704</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7648899698615058</v>
+        <v>2.152318094270324</v>
       </c>
       <c r="C23">
-        <v>4.11502903611869</v>
+        <v>1.881123795503951</v>
       </c>
       <c r="D23">
-        <v>4.072288065718823</v>
+        <v>2.031220277813059</v>
       </c>
       <c r="E23">
-        <v>1.635445449204731</v>
+        <v>2.702544731642798</v>
       </c>
       <c r="F23">
-        <v>1.90165716780785</v>
+        <v>1.533367132744481</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7543554298411101</v>
+        <v>2.186524807591645</v>
       </c>
       <c r="C24">
-        <v>4.146136606704273</v>
+        <v>1.905342608475899</v>
       </c>
       <c r="D24">
-        <v>4.148135359051997</v>
+        <v>2.051028668965757</v>
       </c>
       <c r="E24">
-        <v>1.626345813916964</v>
+        <v>2.75055314339632</v>
       </c>
       <c r="F24">
-        <v>1.892368437837634</v>
+        <v>1.54556807735975</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7438765497661256</v>
+        <v>2.21935313595744</v>
       </c>
       <c r="C25">
-        <v>4.17342469598038</v>
+        <v>1.928255053674277</v>
       </c>
       <c r="D25">
-        <v>4.212623827730477</v>
+        <v>2.068856357620207</v>
       </c>
       <c r="E25">
-        <v>1.616944002500672</v>
+        <v>2.796387362200876</v>
       </c>
       <c r="F25">
-        <v>1.881266909175554</v>
+        <v>1.556977713741394</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7334550536180472</v>
+        <v>2.250830685290797</v>
       </c>
       <c r="C26">
-        <v>4.197309486518185</v>
+        <v>1.949873054599368</v>
       </c>
       <c r="D26">
-        <v>4.2661498139598</v>
+        <v>2.084745755688601</v>
       </c>
       <c r="E26">
-        <v>1.607343044005675</v>
+        <v>2.840104165444109</v>
       </c>
       <c r="F26">
-        <v>1.868639166116602</v>
+        <v>1.567623678853174</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7230925326169207</v>
+        <v>2.280985242144405</v>
       </c>
       <c r="C27">
-        <v>4.218156838442979</v>
+        <v>1.970209174523576</v>
       </c>
       <c r="D27">
-        <v>4.309445073379868</v>
+        <v>2.098739096486478</v>
       </c>
       <c r="E27">
-        <v>1.597614236917574</v>
+        <v>2.881760678323632</v>
       </c>
       <c r="F27">
-        <v>1.854731208009968</v>
+        <v>1.577532814705449</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7127904800141558</v>
+        <v>2.309844729138951</v>
       </c>
       <c r="C28">
-        <v>4.236288435444678</v>
+        <v>1.989276602479215</v>
       </c>
       <c r="D28">
-        <v>4.343469771397027</v>
+        <v>2.110878501685749</v>
       </c>
       <c r="E28">
-        <v>1.587807392354271</v>
+        <v>2.921414187416733</v>
       </c>
       <c r="F28">
-        <v>1.839753370252568</v>
+        <v>1.586731165056161</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7025502962754179</v>
+        <v>2.337437162058477</v>
       </c>
       <c r="C29">
-        <v>4.251987294244882</v>
+        <v>2.007089139120628</v>
       </c>
       <c r="D29">
-        <v>4.369301107171719</v>
+        <v>2.121205921197348</v>
       </c>
       <c r="E29">
-        <v>1.57795763365159</v>
+        <v>2.959121965394317</v>
       </c>
       <c r="F29">
-        <v>1.823885028505832</v>
+        <v>1.59524399392295</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.692373295860038</v>
+        <v>2.363790610386144</v>
       </c>
       <c r="C30">
-        <v>4.265502663094985</v>
+        <v>2.023661184107583</v>
       </c>
       <c r="D30">
-        <v>4.388037755222626</v>
+        <v>2.129763200325801</v>
       </c>
       <c r="E30">
-        <v>1.568089969521713</v>
+        <v>2.994941103098672</v>
       </c>
       <c r="F30">
-        <v>1.807278921177568</v>
+        <v>1.603095768360306</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.68226072559999</v>
+        <v>2.388933155829345</v>
       </c>
       <c r="C31">
-        <v>4.277054357900818</v>
+        <v>2.039007717928793</v>
       </c>
       <c r="D31">
-        <v>4.400729918195203</v>
+        <v>2.13659204900175</v>
       </c>
       <c r="E31">
-        <v>1.558222373285002</v>
+        <v>3.028928364294513</v>
       </c>
       <c r="F31">
-        <v>1.790065065560787</v>
+        <v>1.610310206135456</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.6722137699513826</v>
+        <v>2.412892857425603</v>
       </c>
       <c r="C32">
-        <v>4.286836524357388</v>
+        <v>2.053144279644202</v>
       </c>
       <c r="D32">
-        <v>4.408336002823424</v>
+        <v>2.141734040078421</v>
       </c>
       <c r="E32">
-        <v>1.548367876584307</v>
+        <v>3.061140048802837</v>
       </c>
       <c r="F32">
-        <v>1.772354170995069</v>
+        <v>1.616910246146602</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.662233558766439</v>
+        <v>2.435697711857955</v>
       </c>
       <c r="C33">
-        <v>4.295020923028103</v>
+        <v>2.066086944269092</v>
       </c>
       <c r="D33">
-        <v>4.411701620713025</v>
+        <v>2.145230572645713</v>
       </c>
       <c r="E33">
-        <v>1.538536006182774</v>
+        <v>3.091631867411866</v>
       </c>
       <c r="F33">
-        <v>1.754240585917846</v>
+        <v>1.622918106565778</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6523211739725072</v>
+        <v>2.457375620056601</v>
       </c>
       <c r="C34">
-        <v>4.301759778036399</v>
+        <v>2.07785229782847</v>
       </c>
       <c r="D34">
-        <v>4.411554698069533</v>
+        <v>2.14712284168396</v>
       </c>
       <c r="E34">
-        <v>1.528733771478535</v>
+        <v>3.120458824962729</v>
       </c>
       <c r="F34">
-        <v>1.735804810504266</v>
+        <v>1.628355263535848</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6424776535443221</v>
+        <v>2.477954354849301</v>
       </c>
       <c r="C35">
-        <v>4.307188268478904</v>
+        <v>2.08845740820409</v>
       </c>
       <c r="D35">
-        <v>4.408510755043909</v>
+        <v>2.147451825243177</v>
       </c>
       <c r="E35">
-        <v>1.518966382995764</v>
+        <v>3.147675125679922</v>
       </c>
       <c r="F35">
-        <v>1.717115635683281</v>
+        <v>1.633242494824612</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.6327039935162605</v>
+        <v>2.497461523166884</v>
       </c>
       <c r="C36">
-        <v>4.311426659050611</v>
+        <v>2.097919794863443</v>
       </c>
       <c r="D36">
-        <v>4.403083670290433</v>
+        <v>2.146258264803726</v>
       </c>
       <c r="E36">
-        <v>1.509237737390829</v>
+        <v>3.173334085284647</v>
       </c>
       <c r="F36">
-        <v>1.69823194488424</v>
+        <v>1.637599878693044</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6230011542114473</v>
+        <v>2.515924541227775</v>
       </c>
       <c r="C37">
-        <v>4.314582157913448</v>
+        <v>2.106257399464035</v>
       </c>
       <c r="D37">
-        <v>4.39569868554243</v>
+        <v>2.143582640553533</v>
       </c>
       <c r="E37">
-        <v>1.499550744895865</v>
+        <v>3.197488053326775</v>
       </c>
       <c r="F37">
-        <v>1.67920422867375</v>
+        <v>1.641446820233008</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.6133700609870952</v>
+        <v>2.533370600846757</v>
       </c>
       <c r="C38">
-        <v>4.316750521924409</v>
+        <v>2.113488554834539</v>
       </c>
       <c r="D38">
-        <v>4.386705626672333</v>
+        <v>2.139465161396557</v>
       </c>
       <c r="E38">
-        <v>1.489907588303076</v>
+        <v>3.220188342913432</v>
       </c>
       <c r="F38">
-        <v>1.660075865038685</v>
+        <v>1.644802065706294</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6038116081301423</v>
+        <v>2.5498266423249</v>
       </c>
       <c r="C39">
-        <v>4.318017456713307</v>
+        <v>2.119631951859479</v>
       </c>
       <c r="D39">
-        <v>4.376391284545671</v>
+        <v>2.133945735009126</v>
       </c>
       <c r="E39">
-        <v>1.480309915078353</v>
+        <v>3.241485179163517</v>
       </c>
       <c r="F39">
-        <v>1.64088418562761</v>
+        <v>1.647683720100449</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5943266601728533</v>
+        <v>2.56531933276381</v>
       </c>
       <c r="C40">
-        <v>4.318459818249588</v>
+        <v>2.124706606900841</v>
       </c>
       <c r="D40">
-        <v>4.364990324017864</v>
+        <v>2.127063959679869</v>
       </c>
       <c r="E40">
-        <v>1.470758969081633</v>
+        <v>3.261427652561325</v>
       </c>
       <c r="F40">
-        <v>1.621661380192349</v>
+        <v>1.650109269424398</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.584916055060373</v>
+        <v>2.57987503432595</v>
       </c>
       <c r="C41">
-        <v>4.318146662250048</v>
+        <v>2.128731833157911</v>
       </c>
       <c r="D41">
-        <v>4.35269467893614</v>
+        <v>2.118859104816873</v>
       </c>
       <c r="E41">
-        <v>1.461255682666453</v>
+        <v>3.28006368013105</v>
       </c>
       <c r="F41">
-        <v>1.602435247132122</v>
+        <v>1.65209559408145</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5755806079559553</v>
+        <v>2.593519790621846</v>
       </c>
       <c r="C42">
-        <v>4.317140156164188</v>
+        <v>2.1317272000823</v>
       </c>
       <c r="D42">
-        <v>4.339661378583775</v>
+        <v>2.109370097018578</v>
       </c>
       <c r="E42">
-        <v>1.451800749457121</v>
+        <v>3.29743997259503</v>
       </c>
       <c r="F42">
-        <v>1.583229830971054</v>
+        <v>1.653658993679163</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.5663211019900478</v>
+        <v>2.606279300666925</v>
       </c>
       <c r="C43">
-        <v>4.315496375555945</v>
+        <v>2.133712513085788</v>
       </c>
       <c r="D43">
-        <v>4.326019047531134</v>
+        <v>2.098635510872218</v>
       </c>
       <c r="E43">
-        <v>1.442394680218174</v>
+        <v>3.31360201553496</v>
       </c>
       <c r="F43">
-        <v>1.564065972262106</v>
+        <v>1.654815200864227</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5571383096348465</v>
+        <v>2.618178900503292</v>
       </c>
       <c r="C44">
-        <v>4.31326599360509</v>
+        <v>2.134707766851436</v>
       </c>
       <c r="D44">
-        <v>4.311873278556663</v>
+        <v>2.086693554309355</v>
       </c>
       <c r="E44">
-        <v>1.433037852250142</v>
+        <v>3.328594053934208</v>
       </c>
       <c r="F44">
-        <v>1.544961758701522</v>
+        <v>1.655579402390659</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5480329734944305</v>
+        <v>2.629243550449481</v>
       </c>
       <c r="C45">
-        <v>4.310494884977661</v>
+        <v>2.134733125780587</v>
       </c>
       <c r="D45">
-        <v>4.297310923214626</v>
+        <v>2.073582063917849</v>
       </c>
       <c r="E45">
-        <v>1.423730533695318</v>
+        <v>3.342459082037393</v>
       </c>
       <c r="F45">
-        <v>1.525932895397734</v>
+        <v>1.655966256671462</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5390058135578685</v>
+        <v>2.639497812166179</v>
       </c>
       <c r="C46">
-        <v>4.307224648151073</v>
+        <v>2.133808886384173</v>
       </c>
       <c r="D46">
-        <v>4.282403596774903</v>
+        <v>2.059338494982145</v>
       </c>
       <c r="E46">
-        <v>1.414472901170876</v>
+        <v>3.355238837615957</v>
       </c>
       <c r="F46">
-        <v>1.506993027303228</v>
+        <v>1.655989909921904</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.530057539278431</v>
+        <v>2.648965842228748</v>
       </c>
       <c r="C47">
-        <v>4.303493077229643</v>
+        <v>2.131955445916926</v>
       </c>
       <c r="D47">
-        <v>4.267210529782644</v>
+        <v>2.043999920588635</v>
       </c>
       <c r="E47">
-        <v>1.405265061427521</v>
+        <v>3.366973805724641</v>
       </c>
       <c r="F47">
-        <v>1.488154023859865</v>
+        <v>1.655664016183274</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5211888245697555</v>
+        <v>2.657671375996933</v>
       </c>
       <c r="C48">
-        <v>4.299334592684859</v>
+        <v>2.129193278361409</v>
       </c>
       <c r="D48">
-        <v>4.251780852168114</v>
+        <v>2.027603024877476</v>
       </c>
       <c r="E48">
-        <v>1.396107066478611</v>
+        <v>3.377703224585958</v>
       </c>
       <c r="F48">
-        <v>1.469426217677429</v>
+        <v>1.655001751286158</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5124003358148516</v>
+        <v>2.665637715659523</v>
       </c>
       <c r="C49">
-        <v>4.294780572265679</v>
+        <v>2.125542901588996</v>
       </c>
       <c r="D49">
-        <v>4.236155432744392</v>
+        <v>2.010184109461847</v>
       </c>
       <c r="E49">
-        <v>1.38699892159967</v>
+        <v>3.387465094731839</v>
       </c>
       <c r="F49">
-        <v>1.45081860352246</v>
+        <v>1.654015832371322</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5036927166110601</v>
+        <v>2.672887726372464</v>
       </c>
       <c r="C50">
-        <v>4.289859660529214</v>
+        <v>2.121024850023554</v>
       </c>
       <c r="D50">
-        <v>4.220368377052467</v>
+        <v>1.991779086277433</v>
       </c>
       <c r="E50">
-        <v>1.377940605857285</v>
+        <v>3.396296191087127</v>
       </c>
       <c r="F50">
-        <v>1.432339007162164</v>
+        <v>1.652718531872791</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4950665851021995</v>
+        <v>2.679443821222008</v>
       </c>
       <c r="C51">
-        <v>4.284598052952941</v>
+        <v>2.115659655581293</v>
       </c>
       <c r="D51">
-        <v>4.204448240549043</v>
+        <v>1.972423492787025</v>
       </c>
       <c r="E51">
-        <v>1.368932057070832</v>
+        <v>3.404232080870509</v>
       </c>
       <c r="F51">
-        <v>1.413994232405757</v>
+        <v>1.651121694914651</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.4865225612843464</v>
+        <v>2.685327960977443</v>
       </c>
       <c r="C52">
-        <v>4.279019749637487</v>
+        <v>2.109467808595718</v>
       </c>
       <c r="D52">
-        <v>4.188419051925294</v>
+        <v>1.952152484137461</v>
       </c>
       <c r="E52">
-        <v>1.359973217928071</v>
+        <v>3.411307142651133</v>
       </c>
       <c r="F52">
-        <v>1.395790229703826</v>
+        <v>1.649236754062578</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.480299253764612</v>
+        <v>2.690561646347438</v>
       </c>
       <c r="C53">
-        <v>4.337449367886219</v>
+        <v>2.102469754456864</v>
       </c>
       <c r="D53">
-        <v>4.180511888891722</v>
+        <v>1.931000855159738</v>
       </c>
       <c r="E53">
-        <v>1.351099190657998</v>
+        <v>3.417554587137845</v>
       </c>
       <c r="F53">
-        <v>1.385174205518145</v>
+        <v>1.647074743798076</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4741126591512591</v>
+        <v>2.695165911753946</v>
       </c>
       <c r="C54">
-        <v>4.392887855696585</v>
+        <v>2.094685845461876</v>
       </c>
       <c r="D54">
-        <v>4.171565147054109</v>
+        <v>1.909003033950079</v>
       </c>
       <c r="E54">
-        <v>1.342270482758308</v>
+        <v>3.423006479714486</v>
       </c>
       <c r="F54">
-        <v>1.374133589992122</v>
+        <v>1.644646316721707</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.4679641818078075</v>
+        <v>2.699161327891487</v>
       </c>
       <c r="C55">
-        <v>4.445521197684773</v>
+        <v>2.086136349127639</v>
       </c>
       <c r="D55">
-        <v>4.161723295756234</v>
+        <v>1.88619310838684</v>
       </c>
       <c r="E55">
-        <v>1.333487582817337</v>
+        <v>3.427693766087844</v>
       </c>
       <c r="F55">
-        <v>1.362720560107184</v>
+        <v>1.641961754175304</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.4618551624503437</v>
+        <v>2.702567993955309</v>
       </c>
       <c r="C56">
-        <v>4.495522056317666</v>
+        <v>2.076841395055158</v>
       </c>
       <c r="D56">
-        <v>4.151108940045493</v>
+        <v>1.862604822349999</v>
       </c>
       <c r="E56">
-        <v>1.324750671945549</v>
+        <v>3.431646298371136</v>
       </c>
       <c r="F56">
-        <v>1.350981688279645</v>
+        <v>1.639030984689975</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4557868733846751</v>
+        <v>2.705405541408523</v>
       </c>
       <c r="C57">
-        <v>4.543049649018621</v>
+        <v>2.066820992771852</v>
       </c>
       <c r="D57">
-        <v>4.139826506591646</v>
+        <v>1.838271606151191</v>
       </c>
       <c r="E57">
-        <v>1.316060067379657</v>
+        <v>3.43489286188043</v>
       </c>
       <c r="F57">
-        <v>1.338958879123028</v>
+        <v>1.635863591076445</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.4497605162605272</v>
+        <v>2.707693133148799</v>
       </c>
       <c r="C58">
-        <v>4.588250812987053</v>
+        <v>2.056094975684619</v>
       </c>
       <c r="D58">
-        <v>4.127965343728865</v>
+        <v>1.813226575031438</v>
       </c>
       <c r="E58">
-        <v>1.307415998613158</v>
+        <v>3.43746120277456</v>
       </c>
       <c r="F58">
-        <v>1.326689721403206</v>
+        <v>1.632468829361176</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.4437772279439883</v>
+        <v>2.709449461766821</v>
       </c>
       <c r="C59">
-        <v>4.631261489860641</v>
+        <v>2.044683023633256</v>
       </c>
       <c r="D59">
-        <v>4.115602181651639</v>
+        <v>1.787502563593294</v>
       </c>
       <c r="E59">
-        <v>1.29881861069965</v>
+        <v>3.439378057368388</v>
       </c>
       <c r="F59">
-        <v>1.31420814517065</v>
+        <v>1.628855634725965</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4378380871591854</v>
+        <v>2.710692756512774</v>
       </c>
       <c r="C60">
-        <v>4.672207667267439</v>
+        <v>2.032604613920203</v>
       </c>
       <c r="D60">
-        <v>4.10280265102775</v>
+        <v>1.761132126136068</v>
       </c>
       <c r="E60">
-        <v>1.290268001479682</v>
+        <v>3.440669180780127</v>
       </c>
       <c r="F60">
-        <v>1.301544781412957</v>
+        <v>1.625032639208776</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.4319441166878602</v>
+        <v>2.711440781295686</v>
       </c>
       <c r="C61">
-        <v>4.711205966003104</v>
+        <v>2.019879034112737</v>
       </c>
       <c r="D61">
-        <v>4.08962335299323</v>
+        <v>1.734147574512354</v>
       </c>
       <c r="E61">
-        <v>1.281764224681107</v>
+        <v>3.441359374490045</v>
       </c>
       <c r="F61">
-        <v>1.28872729270525</v>
+        <v>1.621008177487028</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.4260962847706176</v>
+        <v>2.711710841091834</v>
       </c>
       <c r="C62">
-        <v>4.748364640891479</v>
+        <v>2.006525355194922</v>
       </c>
       <c r="D62">
-        <v>4.076113455547063</v>
+        <v>1.706580980619267</v>
       </c>
       <c r="E62">
-        <v>1.273307303524984</v>
+        <v>3.441472518146426</v>
       </c>
       <c r="F62">
-        <v>1.275780698897735</v>
+        <v>1.616790302829618</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.4202955079895651</v>
+        <v>2.711519785697744</v>
       </c>
       <c r="C63">
-        <v>4.783784410344873</v>
+        <v>1.992562424443506</v>
       </c>
       <c r="D63">
-        <v>4.062315514115704</v>
+        <v>1.678464216514954</v>
       </c>
       <c r="E63">
-        <v>1.26489723927076</v>
+        <v>3.441031594412147</v>
       </c>
       <c r="F63">
-        <v>1.26272767527134</v>
+        <v>1.612386793107119</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.414542654923012</v>
+        <v>2.710884012015319</v>
       </c>
       <c r="C64">
-        <v>4.817559052726769</v>
+        <v>1.978008861793899</v>
       </c>
       <c r="D64">
-        <v>4.048266460251748</v>
+        <v>1.649828959626937</v>
       </c>
       <c r="E64">
-        <v>1.256534008012361</v>
+        <v>3.44005872391153</v>
       </c>
       <c r="F64">
-        <v>1.249588788245729</v>
+        <v>1.607805164689647</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4088385466455415</v>
+        <v>2.709819472924394</v>
       </c>
       <c r="C65">
-        <v>4.849775845916288</v>
+        <v>1.962883037640876</v>
       </c>
       <c r="D65">
-        <v>4.033998286243476</v>
+        <v>1.620706734133119</v>
       </c>
       <c r="E65">
-        <v>1.248217561615387</v>
+        <v>3.438575187972361</v>
       </c>
       <c r="F65">
-        <v>1.236382695269674</v>
+        <v>1.603052679122835</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.4031839588521403</v>
+        <v>2.708341679843552</v>
       </c>
       <c r="C66">
-        <v>4.880516138042849</v>
+        <v>1.947203085731926</v>
       </c>
       <c r="D66">
-        <v>4.019538985695945</v>
+        <v>1.591128919072986</v>
       </c>
       <c r="E66">
-        <v>1.239947847916798</v>
+        <v>3.436601462135377</v>
       </c>
       <c r="F66">
-        <v>1.223126360703373</v>
+        <v>1.598136354596535</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.3975796237983798</v>
+        <v>2.706465710599759</v>
       </c>
       <c r="C67">
-        <v>4.909855892355005</v>
+        <v>1.93098687204286</v>
       </c>
       <c r="D67">
-        <v>4.004913115761618</v>
+        <v>1.561126790342811</v>
       </c>
       <c r="E67">
-        <v>1.231724782866502</v>
+        <v>3.434157241191939</v>
       </c>
       <c r="F67">
-        <v>1.209835201190004</v>
+        <v>1.59306297377213</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.3920262321229235</v>
+        <v>2.704206215947833</v>
       </c>
       <c r="C68">
-        <v>4.937866110703485</v>
+        <v>1.91425201847381</v>
       </c>
       <c r="D68">
-        <v>3.990142245570926</v>
+        <v>1.530731531611443</v>
       </c>
       <c r="E68">
-        <v>1.223548253203028</v>
+        <v>3.431261466400872</v>
       </c>
       <c r="F68">
-        <v>1.196523227942414</v>
+        <v>1.587839092453552</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.3865244307807267</v>
+        <v>2.701577424883305</v>
       </c>
       <c r="C69">
-        <v>4.964613198826638</v>
+        <v>1.897015867550194</v>
       </c>
       <c r="D69">
-        <v>3.975245307852741</v>
+        <v>1.499974276184277</v>
       </c>
       <c r="E69">
-        <v>1.215418145069017</v>
+        <v>3.427932355146743</v>
       </c>
       <c r="F69">
-        <v>1.183203194487146</v>
+        <v>1.582471049000462</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.381074833320481</v>
+        <v>2.698593154010756</v>
       </c>
       <c r="C70">
-        <v>4.990159322993977</v>
+        <v>1.879295512427191</v>
       </c>
       <c r="D70">
-        <v>3.960238944134045</v>
+        <v>1.468886120795087</v>
       </c>
       <c r="E70">
-        <v>1.20733435063822</v>
+        <v>3.424187421868914</v>
       </c>
       <c r="F70">
-        <v>1.169886724141128</v>
+        <v>1.576964969889959</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.375678004406736</v>
+        <v>2.695266813223832</v>
       </c>
       <c r="C71">
-        <v>5.014562690897709</v>
+        <v>1.861107761179678</v>
       </c>
       <c r="D71">
-        <v>3.94513783082417</v>
+        <v>1.437498166200818</v>
       </c>
       <c r="E71">
-        <v>1.199296733998474</v>
+        <v>3.420043510351932</v>
       </c>
       <c r="F71">
-        <v>1.156584425331687</v>
+        <v>1.571326780910635</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.3703344843920046</v>
+        <v>2.691611414215699</v>
       </c>
       <c r="C72">
-        <v>5.037877918698308</v>
+        <v>1.84246916936429</v>
       </c>
       <c r="D72">
-        <v>3.92995492458015</v>
+        <v>1.405841533889084</v>
       </c>
       <c r="E72">
-        <v>1.191305170350404</v>
+        <v>3.415516811185058</v>
       </c>
       <c r="F72">
-        <v>1.143305983163368</v>
+        <v>1.565562210251118</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.3650447670973903</v>
+        <v>2.687639578432822</v>
       </c>
       <c r="C73">
-        <v>5.060156465816503</v>
+        <v>1.82339600796968</v>
       </c>
       <c r="D73">
-        <v>3.914701776424214</v>
+        <v>1.373947403220305</v>
       </c>
       <c r="E73">
-        <v>1.183359518030271</v>
+        <v>3.410622893953953</v>
       </c>
       <c r="F73">
-        <v>1.130060217706854</v>
+        <v>1.559676799950296</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.3598093171590352</v>
+        <v>2.683363544233441</v>
       </c>
       <c r="C74">
-        <v>5.081446508718752</v>
+        <v>1.803904290428524</v>
       </c>
       <c r="D74">
-        <v>3.899388582440593</v>
+        <v>1.341847032530233</v>
       </c>
       <c r="E74">
-        <v>1.175459635033424</v>
+        <v>3.405376722899693</v>
       </c>
       <c r="F74">
-        <v>1.116855167842961</v>
+        <v>1.553675908373708</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.3546285661243022</v>
+        <v>2.678795176107238</v>
       </c>
       <c r="C75">
-        <v>5.101793519539363</v>
+        <v>1.784009756302871</v>
       </c>
       <c r="D75">
-        <v>3.884024622133184</v>
+        <v>1.309571790932063</v>
       </c>
       <c r="E75">
-        <v>1.167605371593748</v>
+        <v>3.39979268810354</v>
       </c>
       <c r="F75">
-        <v>1.103698165537948</v>
+        <v>1.547564720722734</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.3495029114133264</v>
+        <v>2.673945972499038</v>
       </c>
       <c r="C76">
-        <v>5.121240145207668</v>
+        <v>1.763727882471228</v>
       </c>
       <c r="D76">
-        <v>3.868617992105844</v>
+        <v>1.277153183178416</v>
       </c>
       <c r="E76">
-        <v>1.15979657399077</v>
+        <v>3.393884619163207</v>
       </c>
       <c r="F76">
-        <v>1.09059588898128</v>
+        <v>1.541348251585092</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.3444327186623045</v>
+        <v>2.668827073716356</v>
       </c>
       <c r="C77">
-        <v>5.139826605227744</v>
+        <v>1.743073884483567</v>
       </c>
       <c r="D77">
-        <v>3.853175919154338</v>
+        <v>1.244622873212183</v>
       </c>
       <c r="E77">
-        <v>1.15203308421575</v>
+        <v>3.387665815769427</v>
       </c>
       <c r="F77">
-        <v>1.077554454096725</v>
+        <v>1.535031354200287</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.3394183242168002</v>
+        <v>2.663449270020317</v>
       </c>
       <c r="C78">
-        <v>5.157590801008686</v>
+        <v>1.722062715808261</v>
       </c>
       <c r="D78">
-        <v>3.837704925469844</v>
+        <v>1.212012714570655</v>
       </c>
       <c r="E78">
-        <v>1.144314743857972</v>
+        <v>3.381149058914064</v>
       </c>
       <c r="F78">
-        <v>1.064579389201508</v>
+        <v>1.52861872335005</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.3344600305295468</v>
+        <v>2.657823012152073</v>
       </c>
       <c r="C79">
-        <v>5.174568517400703</v>
+        <v>1.700709081143932</v>
       </c>
       <c r="D79">
-        <v>3.822210737134958</v>
+        <v>1.179354760979213</v>
       </c>
       <c r="E79">
-        <v>1.136641383929359</v>
+        <v>3.374346641061541</v>
       </c>
       <c r="F79">
-        <v>1.051675814207091</v>
+        <v>1.522114903233373</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.3295581129887431</v>
+        <v>2.651958415219171</v>
       </c>
       <c r="C80">
-        <v>5.190793562787246</v>
+        <v>1.679027428872013</v>
       </c>
       <c r="D80">
-        <v>3.806698647810489</v>
+        <v>1.14668130365296</v>
       </c>
       <c r="E80">
-        <v>1.129012835999032</v>
+        <v>3.367270375153625</v>
       </c>
       <c r="F80">
-        <v>1.038848350774099</v>
+        <v>1.515524290912178</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.3247128161503673</v>
+        <v>2.645865272344595</v>
       </c>
       <c r="C81">
-        <v>5.206297903737571</v>
+        <v>1.657031971610121</v>
       </c>
       <c r="D81">
-        <v>3.791173272365369</v>
+        <v>1.114024862880535</v>
       </c>
       <c r="E81">
-        <v>1.121428938127815</v>
+        <v>3.359931623926887</v>
       </c>
       <c r="F81">
-        <v>1.02610120872465</v>
+        <v>1.508851142664957</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.3199243561186501</v>
+        <v>2.639553059386822</v>
       </c>
       <c r="C82">
-        <v>5.22111174803761</v>
+        <v>1.634736675624509</v>
       </c>
       <c r="D82">
-        <v>3.775638879919296</v>
+        <v>1.081418234959739</v>
       </c>
       <c r="E82">
-        <v>1.113889510480524</v>
+        <v>3.352341307406838</v>
       </c>
       <c r="F82">
-        <v>1.013438194176616</v>
+        <v>1.502099578184802</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.3151929211658555</v>
+        <v>2.633030943920672</v>
       </c>
       <c r="C83">
-        <v>5.235263715154197</v>
+        <v>1.612155285291131</v>
       </c>
       <c r="D83">
-        <v>3.76009929731852</v>
+        <v>1.048894457971131</v>
       </c>
       <c r="E83">
-        <v>1.106394375283506</v>
+        <v>3.344509930847497</v>
       </c>
       <c r="F83">
-        <v>1.000862769152288</v>
+        <v>1.49527358392213</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.3105186722485607</v>
+        <v>2.626307795092498</v>
       </c>
       <c r="C84">
-        <v>5.248780876675888</v>
+        <v>1.589301312037431</v>
       </c>
       <c r="D84">
-        <v>3.744558016302178</v>
+        <v>1.01648686979587</v>
       </c>
       <c r="E84">
-        <v>1.098943361503485</v>
+        <v>3.336447591155667</v>
       </c>
       <c r="F84">
-        <v>0.98837806959124</v>
+        <v>1.48837702069497</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.3059016527981341</v>
+        <v>2.619392190098452</v>
       </c>
       <c r="C85">
-        <v>5.261688902425649</v>
+        <v>1.566188060523002</v>
       </c>
       <c r="D85">
-        <v>3.729017427359691</v>
+        <v>0.984229039400859</v>
       </c>
       <c r="E85">
-        <v>1.091536294332578</v>
+        <v>3.328164003301313</v>
       </c>
       <c r="F85">
-        <v>0.9759869428808872</v>
+        <v>1.481413628865887</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.2995567163356757</v>
+        <v>2.612292421909447</v>
       </c>
       <c r="C86">
-        <v>5.24943904981463</v>
+        <v>1.542828618973132</v>
       </c>
       <c r="D86">
-        <v>3.713044887690409</v>
+        <v>0.9521548392599397</v>
       </c>
       <c r="E86">
-        <v>1.084170928697501</v>
+        <v>3.319668505749337</v>
       </c>
       <c r="F86">
-        <v>0.9622552916841723</v>
+        <v>1.474387021135337</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.2933023765903185</v>
+        <v>2.605016508975649</v>
       </c>
       <c r="C87">
-        <v>5.237159677137675</v>
+        <v>1.519235884036165</v>
       </c>
       <c r="D87">
-        <v>3.697106306684861</v>
+        <v>0.9202983306048098</v>
       </c>
       <c r="E87">
-        <v>1.076849127200955</v>
+        <v>3.310970085442721</v>
       </c>
       <c r="F87">
-        <v>0.948690008935073</v>
+        <v>1.46730070663605</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.2871385641067064</v>
+        <v>2.59757220206711</v>
       </c>
       <c r="C88">
-        <v>5.224851579958179</v>
+        <v>1.495422556853211</v>
       </c>
       <c r="D88">
-        <v>3.681201958426581</v>
+        <v>0.8886938595869923</v>
       </c>
       <c r="E88">
-        <v>1.06957090675855</v>
+        <v>3.302077382258148</v>
       </c>
       <c r="F88">
-        <v>0.9352899895207653</v>
+        <v>1.460158081978527</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.2810652053861089</v>
+        <v>2.589966989874769</v>
       </c>
       <c r="C89">
-        <v>5.212516854523809</v>
+        <v>1.471401162055166</v>
       </c>
       <c r="D89">
-        <v>3.66533210780572</v>
+        <v>0.8573759004659141</v>
       </c>
       <c r="E89">
-        <v>1.062336047818385</v>
+        <v>3.292998712627742</v>
       </c>
       <c r="F89">
-        <v>0.9220540430644019</v>
+        <v>1.452962425005298</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.2750822003057412</v>
+        <v>2.582208111562443</v>
       </c>
       <c r="C90">
-        <v>5.200157480332575</v>
+        <v>1.447184053015387</v>
       </c>
       <c r="D90">
-        <v>3.649497063321768</v>
+        <v>0.8263790775121062</v>
       </c>
       <c r="E90">
-        <v>1.055144344833398</v>
+        <v>3.283742073163614</v>
       </c>
       <c r="F90">
-        <v>0.9089808769572749</v>
+        <v>1.445716924919791</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.2691894202491037</v>
+        <v>2.574302558024293</v>
       </c>
       <c r="C91">
-        <v>5.187775330862462</v>
+        <v>1.42278342329345</v>
       </c>
       <c r="D91">
-        <v>3.633697054284934</v>
+        <v>0.7957380726881311</v>
       </c>
       <c r="E91">
-        <v>1.047995604667009</v>
+        <v>3.27431516287591</v>
       </c>
       <c r="F91">
-        <v>0.896069177985204</v>
+        <v>1.43842466500373</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.2633867067683429</v>
+        <v>2.566257084333918</v>
       </c>
       <c r="C92">
-        <v>5.175372190030398</v>
+        <v>1.398211320319631</v>
       </c>
       <c r="D92">
-        <v>3.617932281847427</v>
+        <v>0.7654875662776466</v>
       </c>
       <c r="E92">
-        <v>1.040889639096199</v>
+        <v>3.264725386171132</v>
       </c>
       <c r="F92">
-        <v>0.8833176416300098</v>
+        <v>1.431088624159163</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.2576738720941358</v>
+        <v>2.558078214906242</v>
       </c>
       <c r="C93">
-        <v>5.162949771659386</v>
+        <v>1.373479651554003</v>
       </c>
       <c r="D93">
-        <v>3.602202930140533</v>
+        <v>0.7356621561522977</v>
       </c>
       <c r="E93">
-        <v>1.033826260769737</v>
+        <v>3.254979873624155</v>
       </c>
       <c r="F93">
-        <v>0.8707249570080564</v>
+        <v>1.423711698229516</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.252050699064223</v>
+        <v>2.549772248211724</v>
       </c>
       <c r="C94">
-        <v>5.150509686545734</v>
+        <v>1.348600204228722</v>
       </c>
       <c r="D94">
-        <v>3.586509176974845</v>
+        <v>0.70629624523191</v>
       </c>
       <c r="E94">
-        <v>1.026805281859573</v>
+        <v>3.245085484492289</v>
       </c>
       <c r="F94">
-        <v>0.8582898007106572</v>
+        <v>1.416296686215104</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.2465169420787855</v>
+        <v>2.541345269472117</v>
       </c>
       <c r="C95">
-        <v>5.138053471717972</v>
+        <v>1.323584648212301</v>
       </c>
       <c r="D95">
-        <v>3.570851190686016</v>
+        <v>0.6774239019431562</v>
       </c>
       <c r="E95">
-        <v>1.019826514048479</v>
+        <v>3.235048826074853</v>
       </c>
       <c r="F95">
-        <v>0.846010836727299</v>
+        <v>1.408846297240506</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.2410723267252679</v>
+        <v>2.532803149996862</v>
       </c>
       <c r="C96">
-        <v>5.125582603287643</v>
+        <v>1.298444560322037</v>
       </c>
       <c r="D96">
-        <v>3.555229128631143</v>
+        <v>0.6490787480537179</v>
       </c>
       <c r="E96">
-        <v>1.012889768771744</v>
+        <v>3.22487625580748</v>
       </c>
       <c r="F96">
-        <v>0.8338867185952887</v>
+        <v>1.401363160409129</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.2357165493670727</v>
+        <v>2.524151560342437</v>
       </c>
       <c r="C97">
-        <v>5.113098468725569</v>
+        <v>1.273191425089691</v>
       </c>
       <c r="D97">
-        <v>3.539643142255714</v>
+        <v>0.6212937697073716</v>
       </c>
       <c r="E97">
-        <v>1.005994857615733</v>
+        <v>3.21457389929098</v>
       </c>
       <c r="F97">
-        <v>0.8219160879122374</v>
+        <v>1.393849817690813</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.2304492777865961</v>
+        <v>2.515395973676037</v>
       </c>
       <c r="C98">
-        <v>5.1006024218385</v>
+        <v>1.247836662844485</v>
       </c>
       <c r="D98">
-        <v>3.524093368853118</v>
+        <v>0.5941011397198984</v>
       </c>
       <c r="E98">
-        <v>0.9991415921885805</v>
+        <v>3.204147652011734</v>
       </c>
       <c r="F98">
-        <v>0.8100975855978608</v>
+        <v>1.386308732486154</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.2252701507170164</v>
+        <v>2.506541669658065</v>
       </c>
       <c r="C99">
-        <v>5.088095721242184</v>
+        <v>1.222391629124679</v>
       </c>
       <c r="D99">
-        <v>3.508579932256381</v>
+        <v>0.5675320447191212</v>
       </c>
       <c r="E99">
-        <v>0.9923297841700064</v>
+        <v>3.193603196114863</v>
       </c>
       <c r="F99">
-        <v>0.7984298392762214</v>
+        <v>1.378742293188143</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.2201787782278629</v>
+        <v>2.497593747435603</v>
       </c>
       <c r="C100">
-        <v>5.075579606006372</v>
+        <v>1.196867646029934</v>
       </c>
       <c r="D100">
-        <v>3.493102969981768</v>
+        <v>0.5416164492407369</v>
       </c>
       <c r="E100">
-        <v>0.9855592454879968</v>
+        <v>3.182946001813065</v>
       </c>
       <c r="F100">
-        <v>0.7869114788863473</v>
+        <v>1.371152808163614</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.2151747418413986</v>
+        <v>2.488557122592759</v>
       </c>
       <c r="C101">
-        <v>5.063055230550639</v>
+        <v>1.17127600158148</v>
       </c>
       <c r="D101">
-        <v>3.477662607671574</v>
+        <v>0.5163828641071221</v>
       </c>
       <c r="E101">
-        <v>0.9788297880459674</v>
+        <v>3.172181342959451</v>
       </c>
       <c r="F101">
-        <v>0.7755411220894453</v>
+        <v>1.363542517469992</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.210257594030482</v>
+        <v>2.479436541116056</v>
       </c>
       <c r="C102">
-        <v>5.050523726435934</v>
+        <v>1.145627980529423</v>
       </c>
       <c r="D102">
-        <v>3.462258954126425</v>
+        <v>0.491858129165776</v>
       </c>
       <c r="E102">
-        <v>0.972141224064392</v>
+        <v>3.161314298211093</v>
       </c>
       <c r="F102">
-        <v>0.7643173863030901</v>
+        <v>1.355913590918504</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.2054268609048437</v>
+        <v>2.470236580905257</v>
       </c>
       <c r="C103">
-        <v>5.037986156199582</v>
+        <v>1.119934870996163</v>
       </c>
       <c r="D103">
-        <v>3.446892119802506</v>
+        <v>0.4680671374883072</v>
       </c>
       <c r="E103">
-        <v>0.9654933657951492</v>
+        <v>3.150349765456627</v>
       </c>
       <c r="F103">
-        <v>0.7532388825472476</v>
+        <v>1.348268124490497</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.200682038239215</v>
+        <v>2.460961655337347</v>
       </c>
       <c r="C104">
-        <v>5.025443554188175</v>
+        <v>1.09420798784356</v>
       </c>
       <c r="D104">
-        <v>3.431562203640278</v>
+        <v>0.4450325865686227</v>
       </c>
       <c r="E104">
-        <v>0.9588860257500472</v>
+        <v>3.139292462783305</v>
       </c>
       <c r="F104">
-        <v>0.7423042214959518</v>
+        <v>1.340608154066223</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1960225963971593</v>
+        <v>2.451616025399221</v>
       </c>
       <c r="C105">
-        <v>5.012896897225313</v>
+        <v>1.068458689881041</v>
       </c>
       <c r="D105">
-        <v>3.416269305026234</v>
+        <v>0.4227747367171771</v>
       </c>
       <c r="E105">
-        <v>0.9523190165694034</v>
+        <v>3.128146941826831</v>
       </c>
       <c r="F105">
-        <v>0.7315120099236191</v>
+        <v>1.332935649508833</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1914479784231393</v>
+        <v>2.442203795810208</v>
       </c>
       <c r="C106">
-        <v>5.000347133446734</v>
+        <v>1.042698396002973</v>
       </c>
       <c r="D106">
-        <v>3.401013514663071</v>
+        <v>0.4013111476086026</v>
       </c>
       <c r="E106">
-        <v>0.9457921511029111</v>
+        <v>3.116917588572056</v>
       </c>
       <c r="F106">
-        <v>0.7208608568182193</v>
+        <v>1.325252514643801</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.1869575988711455</v>
+        <v>2.432728928575872</v>
       </c>
       <c r="C107">
-        <v>4.987795160228766</v>
+        <v>1.016938612407196</v>
       </c>
       <c r="D107">
-        <v>3.385794924574387</v>
+        <v>0.3806564651797231</v>
       </c>
       <c r="E107">
-        <v>0.93930524237866</v>
+        <v>3.105608635698718</v>
       </c>
       <c r="F107">
-        <v>0.7103493673448211</v>
+        <v>1.317560597674204</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1825508506519387</v>
+        <v>2.4231952431906</v>
       </c>
       <c r="C108">
-        <v>4.975241849334062</v>
+        <v>0.991190941981854</v>
       </c>
       <c r="D108">
-        <v>3.370613620791409</v>
+        <v>0.3608221984941762</v>
       </c>
       <c r="E108">
-        <v>0.932858103633089</v>
+        <v>3.09422416323899</v>
       </c>
       <c r="F108">
-        <v>0.6999761503987303</v>
+        <v>1.309861685941156</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.1782270953032995</v>
+        <v>2.413606420127425</v>
       </c>
       <c r="C109">
-        <v>4.962688027915663</v>
+        <v>0.9654671207473755</v>
       </c>
       <c r="D109">
-        <v>3.355469688439035</v>
+        <v>0.3418165383755243</v>
       </c>
       <c r="E109">
-        <v>0.9264505483112075</v>
+        <v>3.082768109988625</v>
       </c>
       <c r="F109">
-        <v>0.6897398130149834</v>
+        <v>1.302157508121323</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.1739856752302453</v>
+        <v>2.403966011650613</v>
       </c>
       <c r="C110">
-        <v>4.950134506464488</v>
+        <v>0.939779022147426</v>
       </c>
       <c r="D110">
-        <v>3.340363207864425</v>
+        <v>0.3236442416290115</v>
       </c>
       <c r="E110">
-        <v>0.9200823900673407</v>
+        <v>3.071244274044521</v>
       </c>
       <c r="F110">
-        <v>0.679638965666248</v>
+        <v>1.294449740787086</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.1698259045497645</v>
+        <v>2.394277437512496</v>
       </c>
       <c r="C111">
-        <v>4.937582043343011</v>
+        <v>0.9141387013921402</v>
       </c>
       <c r="D111">
-        <v>3.325294257406477</v>
+        <v>0.3063064585314982</v>
       </c>
       <c r="E111">
-        <v>0.9137534427967957</v>
+        <v>3.059656323344249</v>
       </c>
       <c r="F111">
-        <v>0.6696722190144063</v>
+        <v>1.286740004597086</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.1657470741513462</v>
+        <v>2.384543997962819</v>
       </c>
       <c r="C112">
-        <v>4.925031362414908</v>
+        <v>0.8885583959437582</v>
       </c>
       <c r="D112">
-        <v>3.310262913713998</v>
+        <v>0.2898007875413491</v>
       </c>
       <c r="E112">
-        <v>0.9074635206457538</v>
+        <v>3.048007796104811</v>
       </c>
       <c r="F112">
-        <v>0.6598381871379273</v>
+        <v>1.279029868006998</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1617484556363977</v>
+        <v>2.374768872774562</v>
       </c>
       <c r="C113">
-        <v>4.912483199475425</v>
+        <v>0.8630505763890091</v>
       </c>
       <c r="D113">
-        <v>3.295269248012853</v>
+        <v>0.2741212324238226</v>
       </c>
       <c r="E113">
-        <v>0.901212438045232</v>
+        <v>3.036302110550493</v>
       </c>
       <c r="F113">
-        <v>0.6501354871670452</v>
+        <v>1.271320850866034</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.1578292912221233</v>
+        <v>2.364955124694684</v>
       </c>
       <c r="C114">
-        <v>4.899938221254927</v>
+        <v>0.8376279455569678</v>
       </c>
       <c r="D114">
-        <v>3.280313330746404</v>
+        <v>0.2592582502385148</v>
       </c>
       <c r="E114">
-        <v>0.8950000095320988</v>
+        <v>3.024542565268563</v>
       </c>
       <c r="F114">
-        <v>0.6405627397362619</v>
+        <v>1.263614421288466</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.1539888114894124</v>
+        <v>2.35510570890434</v>
       </c>
       <c r="C115">
-        <v>4.887397064726189</v>
+        <v>0.8123034905343297</v>
       </c>
       <c r="D115">
-        <v>3.265395232361272</v>
+        <v>0.2451988678747483</v>
       </c>
       <c r="E115">
-        <v>0.8888260498850378</v>
+        <v>3.012732348184552</v>
       </c>
       <c r="F115">
-        <v>0.6311185659788704</v>
+        <v>1.255912001096503</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.1502262162797947</v>
+        <v>2.345223468628847</v>
       </c>
       <c r="C116">
-        <v>4.874860360515697</v>
+        <v>0.7870904892223922</v>
       </c>
       <c r="D116">
-        <v>3.250515017221058</v>
+        <v>0.2319268632029914</v>
       </c>
       <c r="E116">
-        <v>0.8826903745380064</v>
+        <v>3.000874536845437</v>
       </c>
       <c r="F116">
-        <v>0.6218015929486241</v>
+        <v>1.248214966730807</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.1465406914694167</v>
+        <v>2.335311147291834</v>
       </c>
       <c r="C117">
-        <v>4.862328734311967</v>
+        <v>0.7620025529175766</v>
       </c>
       <c r="D117">
-        <v>3.235672749685567</v>
+        <v>0.2194229955185925</v>
       </c>
       <c r="E117">
-        <v>0.8765927988739365</v>
+        <v>2.988972106699416</v>
       </c>
       <c r="F117">
-        <v>0.6126104572416102</v>
+        <v>1.24052464641692</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.1429314039130709</v>
+        <v>2.325371386720653</v>
       </c>
       <c r="C118">
-        <v>4.849802747628552</v>
+        <v>0.7370536482610907</v>
       </c>
       <c r="D118">
-        <v>3.220868494116797</v>
+        <v>0.207665275798546</v>
       </c>
       <c r="E118">
-        <v>0.870533138379995</v>
+        <v>2.977027931314488</v>
       </c>
       <c r="F118">
-        <v>0.6035437896588419</v>
+        <v>1.232842327765203</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.1393974969604569</v>
+        <v>2.315406730595914</v>
       </c>
       <c r="C119">
-        <v>4.837282953467745</v>
+        <v>0.7122581261505702</v>
       </c>
       <c r="D119">
-        <v>3.206102311049394</v>
+        <v>0.1966292726193767</v>
       </c>
       <c r="E119">
-        <v>0.8645112088149985</v>
+        <v>2.965044790015857</v>
       </c>
       <c r="F119">
-        <v>0.5946002276315525</v>
+        <v>1.225169255246994</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.1359381063486621</v>
+        <v>2.305419632440797</v>
       </c>
       <c r="C120">
-        <v>4.824769909264894</v>
+        <v>0.6876307565236949</v>
       </c>
       <c r="D120">
-        <v>3.191374260363226</v>
+        <v>0.1862884493217694</v>
       </c>
       <c r="E120">
-        <v>0.8585268267035778</v>
+        <v>2.953025368046724</v>
       </c>
       <c r="F120">
-        <v>0.5857784270693182</v>
+        <v>1.217506629853223</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.1325523397499557</v>
+        <v>2.295412451600862</v>
       </c>
       <c r="C121">
-        <v>4.812264128042699</v>
+        <v>0.6631867487933237</v>
       </c>
       <c r="D121">
-        <v>3.176684400493167</v>
+        <v>0.1766145238434755</v>
       </c>
       <c r="E121">
-        <v>0.8525798088440708</v>
+        <v>2.940972263612242</v>
       </c>
       <c r="F121">
-        <v>0.5770770342899842</v>
+        <v>1.209855615084698</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.1292392996400061</v>
+        <v>2.285387464082111</v>
       </c>
       <c r="C122">
-        <v>4.799766114169383</v>
+        <v>0.6389417898407275</v>
       </c>
       <c r="D122">
-        <v>3.16203278910871</v>
+        <v>0.1675778399014194</v>
       </c>
       <c r="E122">
-        <v>0.8466699717243191</v>
+        <v>2.928887987988118</v>
       </c>
       <c r="F122">
-        <v>0.5684947054421619</v>
+        <v>1.202217334530077</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1259980678944002</v>
+        <v>2.275346860486344</v>
       </c>
       <c r="C123">
-        <v>4.7872763501718</v>
+        <v>0.6149120646415793</v>
       </c>
       <c r="D123">
-        <v>3.147419482280305</v>
+        <v>0.1591477343187465</v>
       </c>
       <c r="E123">
-        <v>0.8407971323461989</v>
+        <v>2.91677497201657</v>
       </c>
       <c r="F123">
-        <v>0.5600301077215579</v>
+        <v>1.194592872524278</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1228277126480084</v>
+        <v>2.26529274927305</v>
       </c>
       <c r="C124">
-        <v>4.774795302542517</v>
+        <v>0.5911142827022344</v>
       </c>
       <c r="D124">
-        <v>3.132844533819589</v>
+        <v>0.1512928919009824</v>
       </c>
       <c r="E124">
-        <v>0.8349611082466893</v>
+        <v>2.904635566166791</v>
       </c>
       <c r="F124">
-        <v>0.5516819127722113</v>
+        <v>1.186983278573138</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.1197272960310566</v>
+        <v>2.255227163419935</v>
       </c>
       <c r="C125">
-        <v>4.762323427889323</v>
+        <v>0.5675657120062363</v>
       </c>
       <c r="D125">
-        <v>3.118307997932948</v>
+        <v>0.1439817032679759</v>
       </c>
       <c r="E125">
-        <v>0.8291617176402525</v>
+        <v>2.892472046525342</v>
       </c>
       <c r="F125">
-        <v>0.5434487981219831</v>
+        <v>1.179389565265792</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.1166958571954423</v>
+        <v>2.245152056921028</v>
       </c>
       <c r="C126">
-        <v>4.749861164560532</v>
+        <v>0.5442841748895763</v>
       </c>
       <c r="D126">
-        <v>3.103809927060946</v>
+        <v>0.1371825503072996</v>
       </c>
       <c r="E126">
-        <v>0.8233987783758058</v>
+        <v>2.880286614811306</v>
       </c>
       <c r="F126">
-        <v>0.5353294490015714</v>
+        <v>1.171812709829327</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1137324391108714</v>
+        <v>2.235069314157482</v>
       </c>
       <c r="C127">
-        <v>4.737408921979259</v>
+        <v>0.5212881090202367</v>
       </c>
       <c r="D127">
-        <v>3.089350371881271</v>
+        <v>0.1308641900150008</v>
       </c>
       <c r="E127">
-        <v>0.8176721089052057</v>
+        <v>2.868081403641851</v>
       </c>
       <c r="F127">
-        <v>0.5273225575203345</v>
+        <v>1.164253657074949</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.1108360611236863</v>
+        <v>2.224980747896048</v>
       </c>
       <c r="C128">
-        <v>4.724967112002782</v>
+        <v>0.498596506509162</v>
       </c>
       <c r="D128">
-        <v>3.074929382833196</v>
+        <v>0.1249958868396693</v>
       </c>
       <c r="E128">
-        <v>0.8119815280497868</v>
+        <v>2.855858475649244</v>
       </c>
       <c r="F128">
-        <v>0.5194268250430035</v>
+        <v>1.156713317588152</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1080057437842492</v>
+        <v>2.214888102262379</v>
       </c>
       <c r="C129">
-        <v>4.712536127424661</v>
+        <v>0.4762290145038197</v>
       </c>
       <c r="D129">
-        <v>3.060547009067892</v>
+        <v>0.1195476825252033</v>
       </c>
       <c r="E129">
-        <v>0.8063268551319024</v>
+        <v>2.843619831718105</v>
       </c>
       <c r="F129">
-        <v>0.5116409602662572</v>
+        <v>1.149192570206075</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.1052405012173888</v>
+        <v>2.204793058222628</v>
       </c>
       <c r="C130">
-        <v>4.700116342974892</v>
+        <v>0.4542058534863825</v>
       </c>
       <c r="D130">
-        <v>3.046203298780277</v>
+        <v>0.114490588632508</v>
       </c>
       <c r="E130">
-        <v>0.8007079096529641</v>
+        <v>2.831367410137556</v>
       </c>
       <c r="F130">
-        <v>0.5039636762916867</v>
+        <v>1.1416922635185</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.1025393289630729</v>
+        <v>2.194697230631497</v>
       </c>
       <c r="C131">
-        <v>4.687708122560849</v>
+        <v>0.4325478190041655</v>
       </c>
       <c r="D131">
-        <v>3.031898299219156</v>
+        <v>0.1097967472625462</v>
       </c>
       <c r="E131">
-        <v>0.7951245115617604</v>
+        <v>2.819103082180901</v>
       </c>
       <c r="F131">
-        <v>0.4963936983406413</v>
+        <v>1.134213214294258</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.09990121512607138</v>
+        <v>2.184602176223093</v>
       </c>
       <c r="C132">
-        <v>4.675311818589131</v>
+        <v>0.4112762493135739</v>
       </c>
       <c r="D132">
-        <v>3.017632056796005</v>
+        <v>0.1054395419200661</v>
       </c>
       <c r="E132">
-        <v>0.7895764811924463</v>
+        <v>2.806828670972491</v>
       </c>
       <c r="F132">
-        <v>0.4889297587064124</v>
+        <v>1.126756210975869</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.09732516020800394</v>
+        <v>2.174509391749951</v>
       </c>
       <c r="C133">
-        <v>4.662927770895654</v>
+        <v>0.3904129912122668</v>
       </c>
       <c r="D133">
-        <v>3.003404617189226</v>
+        <v>0.1013936744273879</v>
       </c>
       <c r="E133">
-        <v>0.7840636390523562</v>
+        <v>2.794545942377691</v>
       </c>
       <c r="F133">
-        <v>0.4815705964641376</v>
+        <v>1.119322013559698</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.09481014626307764</v>
+        <v>2.164420316679324</v>
       </c>
       <c r="C134">
-        <v>4.650556308734815</v>
+        <v>0.3699803421036024</v>
       </c>
       <c r="D134">
-        <v>2.989216025158443</v>
+        <v>0.09763521725553845</v>
       </c>
       <c r="E134">
-        <v>0.7785858062788487</v>
+        <v>2.782256596324835</v>
       </c>
       <c r="F134">
-        <v>0.4743149601490973</v>
+        <v>1.111911352716615</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.09235515707756604</v>
+        <v>2.154336337647124</v>
       </c>
       <c r="C135">
-        <v>4.638197749473833</v>
+        <v>0.3500009441592032</v>
       </c>
       <c r="D135">
-        <v>2.975066324765312</v>
+        <v>0.09414164435082858</v>
       </c>
       <c r="E135">
-        <v>0.7731428043178732</v>
+        <v>2.769962295535551</v>
       </c>
       <c r="F135">
-        <v>0.4671616069571903</v>
+        <v>1.104524933587958</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.08995917703404206</v>
+        <v>2.144258786018732</v>
       </c>
       <c r="C136">
-        <v>4.625852400667942</v>
+        <v>0.3304977027406534</v>
       </c>
       <c r="D136">
-        <v>2.960955559371482</v>
+        <v>0.09089184451743527</v>
       </c>
       <c r="E136">
-        <v>0.7677344550124523</v>
+        <v>2.757664649683379</v>
       </c>
       <c r="F136">
-        <v>0.4601093028059998</v>
+        <v>1.097163434582399</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.08762119070186826</v>
+        <v>2.134188944650754</v>
       </c>
       <c r="C137">
-        <v>4.613520559309546</v>
+        <v>0.3114936330006909</v>
       </c>
       <c r="D137">
-        <v>2.946883771681466</v>
+        <v>0.08786610850186893</v>
       </c>
       <c r="E137">
-        <v>0.7623605804882624</v>
+        <v>2.745365208331541</v>
       </c>
       <c r="F137">
-        <v>0.4531568226491446</v>
+        <v>1.089827507507452</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.08534017672670084</v>
+        <v>2.124128046194395</v>
       </c>
       <c r="C138">
-        <v>4.601202513956263</v>
+        <v>0.2930116684031818</v>
       </c>
       <c r="D138">
-        <v>2.932851003225578</v>
+        <v>0.08504609918772511</v>
       </c>
       <c r="E138">
-        <v>0.7570210033605158</v>
+        <v>2.733065487101933</v>
       </c>
       <c r="F138">
-        <v>0.4463029503131801</v>
+        <v>1.082517780546898</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.08311511909523461</v>
+        <v>2.114077275530212</v>
       </c>
       <c r="C139">
-        <v>4.588898544398579</v>
+        <v>0.2750745305195439</v>
       </c>
       <c r="D139">
-        <v>2.918857294245329</v>
+        <v>0.08241481032015952</v>
       </c>
       <c r="E139">
-        <v>0.7517155466466311</v>
+        <v>2.720766953622535</v>
       </c>
       <c r="F139">
-        <v>0.4395464787991988</v>
+        <v>1.075234857117441</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.0809450020267162</v>
+        <v>2.104037773349212</v>
       </c>
       <c r="C140">
-        <v>4.576608917632365</v>
+        <v>0.2577043975948993</v>
       </c>
       <c r="D140">
-        <v>2.904902685983151</v>
+        <v>0.07995651568992707</v>
       </c>
       <c r="E140">
-        <v>0.7464440337534458</v>
+        <v>2.708471024101489</v>
       </c>
       <c r="F140">
-        <v>0.4328862096713643</v>
+        <v>1.067979316494663</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.07882880875387242</v>
+        <v>2.094010634173654</v>
       </c>
       <c r="C141">
-        <v>4.56433389049546</v>
+        <v>0.2409226787403671</v>
       </c>
       <c r="D141">
-        <v>2.890987218449029</v>
+        <v>0.07765671541444644</v>
       </c>
       <c r="E141">
-        <v>0.7412062885232655</v>
+        <v>2.696179080550955</v>
       </c>
       <c r="F141">
-        <v>0.4263209551086343</v>
+        <v>1.060751716036066</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.07676552696692804</v>
+        <v>2.083996912036862</v>
       </c>
       <c r="C142">
-        <v>4.552073719429401</v>
+        <v>0.2247497165270209</v>
       </c>
       <c r="D142">
-        <v>2.877110931140609</v>
+        <v>0.07550207043419462</v>
       </c>
       <c r="E142">
-        <v>0.7360021352098193</v>
+        <v>2.683892462437739</v>
       </c>
       <c r="F142">
-        <v>0.419849536646538</v>
+        <v>1.053552590126724</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0747541486672218</v>
+        <v>2.073997618965343</v>
       </c>
       <c r="C143">
-        <v>4.539828651418656</v>
+        <v>0.209204453849538</v>
       </c>
       <c r="D143">
-        <v>2.863273863083686</v>
+        <v>0.07348033717273719</v>
       </c>
       <c r="E143">
-        <v>0.7308313984726466</v>
+        <v>2.671612464947933</v>
       </c>
       <c r="F143">
-        <v>0.4134707857096132</v>
+        <v>1.046382451327406</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.07279366895215079</v>
+        <v>2.064013727167654</v>
       </c>
       <c r="C144">
-        <v>4.527598927424924</v>
+        <v>0.194304065841674</v>
       </c>
       <c r="D144">
-        <v>2.849476051240677</v>
+        <v>0.07158029879050873</v>
       </c>
       <c r="E144">
-        <v>0.7256939034079417</v>
+        <v>2.659340349749808</v>
       </c>
       <c r="F144">
-        <v>0.407183543507203</v>
+        <v>1.039241791804017</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.07088308798213648</v>
+        <v>2.054046171882862</v>
       </c>
       <c r="C145">
-        <v>4.515384783027979</v>
+        <v>0.1800635780495151</v>
       </c>
       <c r="D145">
-        <v>2.835717530970055</v>
+        <v>0.06979169712881039</v>
       </c>
       <c r="E145">
-        <v>0.7205894755642931</v>
+        <v>2.64707734104703</v>
       </c>
       <c r="F145">
-        <v>0.4009866551136016</v>
+        <v>1.032131082384909</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.06902141268552135</v>
+        <v>2.044095849803201</v>
       </c>
       <c r="C146">
-        <v>4.503186414681982</v>
+        <v>0.1664954824313277</v>
       </c>
       <c r="D146">
-        <v>2.821998340755503</v>
+        <v>0.06810516570584232</v>
       </c>
       <c r="E146">
-        <v>0.7155179409464821</v>
+        <v>2.634824622735696</v>
       </c>
       <c r="F146">
-        <v>0.3948789837178656</v>
+        <v>1.025050774272898</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.06720765606304466</v>
+        <v>2.034163623817225</v>
       </c>
       <c r="C147">
-        <v>4.491004047901677</v>
+        <v>0.1536093664187854</v>
       </c>
       <c r="D147">
-        <v>2.808318516935758</v>
+        <v>0.06651217076810242</v>
       </c>
       <c r="E147">
-        <v>0.7104791259714516</v>
+        <v>2.622583347664167</v>
       </c>
       <c r="F147">
-        <v>0.388859399836738</v>
+        <v>1.018001299618708</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.0654408379729902</v>
+        <v>2.024250321669186</v>
       </c>
       <c r="C148">
-        <v>4.478837899342662</v>
+        <v>0.1414115639927013</v>
       </c>
       <c r="D148">
-        <v>2.794678095384325</v>
+        <v>0.06500493047824994</v>
       </c>
       <c r="E148">
-        <v>0.7054728575236349</v>
+        <v>2.61035463514672</v>
       </c>
       <c r="F148">
-        <v>0.3829267843486791</v>
+        <v>1.010983070734325</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.06371998666595184</v>
+        <v>2.014356737918809</v>
       </c>
       <c r="C149">
-        <v>4.466688176580913</v>
+        <v>0.1299048485047648</v>
       </c>
       <c r="D149">
-        <v>2.781077111536905</v>
+        <v>0.06357636311949501</v>
       </c>
       <c r="E149">
-        <v>0.7004989629409306</v>
+        <v>2.598139567210358</v>
       </c>
       <c r="F149">
-        <v>0.3770800286420058</v>
+        <v>1.003996482397222</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.06204413883919927</v>
+        <v>2.004483636185191</v>
       </c>
       <c r="C150">
-        <v>4.454555083100615</v>
+        <v>0.1190881891929154</v>
       </c>
       <c r="D150">
-        <v>2.767515598467762</v>
+        <v>0.0622200418408908</v>
       </c>
       <c r="E150">
-        <v>0.6955572700077564</v>
+        <v>2.585939196869463</v>
       </c>
       <c r="F150">
-        <v>0.3713180245498748</v>
+        <v>0.9970419114243602</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.06041233854007912</v>
+        <v>1.994631747909216</v>
       </c>
       <c r="C151">
-        <v>4.442438810640979</v>
+        <v>0.1089565853012025</v>
       </c>
       <c r="D151">
-        <v>2.753993588139671</v>
+        <v>0.06093012041438389</v>
       </c>
       <c r="E151">
-        <v>0.6906476069990288</v>
+        <v>2.573754546856657</v>
       </c>
       <c r="F151">
-        <v>0.365639685075661</v>
+        <v>0.9901197165117583</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.05882364085957185</v>
+        <v>1.984801776297224</v>
       </c>
       <c r="C152">
-        <v>4.430339506843383</v>
+        <v>0.09950099633627334</v>
       </c>
       <c r="D152">
-        <v>2.740511115392081</v>
+        <v>0.05970129899239628</v>
       </c>
       <c r="E152">
-        <v>0.685769802653718</v>
+        <v>2.56158660592275</v>
       </c>
       <c r="F152">
-        <v>0.3600439312824871</v>
+        <v>0.9832302403017855</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.05727710924632817</v>
+        <v>1.974994395148137</v>
       </c>
       <c r="C153">
-        <v>4.418257377702237</v>
+        <v>0.09070837745527718</v>
       </c>
       <c r="D153">
-        <v>2.727068212913131</v>
+        <v>0.05852877044704323</v>
       </c>
       <c r="E153">
-        <v>0.6809236861814718</v>
+        <v>2.549436334975432</v>
       </c>
       <c r="F153">
-        <v>0.354529693830953</v>
+        <v>0.9763738087298891</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.05577181761390232</v>
+        <v>1.965210250601754</v>
       </c>
       <c r="C154">
-        <v>4.406192600245407</v>
+        <v>0.08256182481404802</v>
       </c>
       <c r="D154">
-        <v>2.713664912881331</v>
+        <v>0.05740816767435729</v>
       </c>
       <c r="E154">
-        <v>0.6761090871602417</v>
+        <v>2.537304667323296</v>
       </c>
       <c r="F154">
-        <v>0.3490959138846031</v>
+        <v>0.9695507312484122</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.05430685069628162</v>
+        <v>1.95544996275181</v>
       </c>
       <c r="C155">
-        <v>4.394145347427362</v>
+        <v>0.07504082911536618</v>
       </c>
       <c r="D155">
-        <v>2.700301246978437</v>
+        <v>0.05633554055903358</v>
       </c>
       <c r="E155">
-        <v>0.6713258358012278</v>
+        <v>2.525192505589732</v>
       </c>
       <c r="F155">
-        <v>0.3437415365274034</v>
+        <v>0.9627613024685994</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.05288130345274049</v>
+        <v>1.945714123900787</v>
       </c>
       <c r="C156">
-        <v>4.382115788480284</v>
+        <v>0.06812163150570291</v>
       </c>
       <c r="D156">
-        <v>2.686977245179044</v>
+        <v>0.05530729207413398</v>
       </c>
       <c r="E156">
-        <v>0.6665737627538803</v>
+        <v>2.513100725684881</v>
       </c>
       <c r="F156">
-        <v>0.3384655218643337</v>
+        <v>0.9560058012442881</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.05149428276287473</v>
+        <v>1.936003304110124</v>
       </c>
       <c r="C157">
-        <v>4.370104070582327</v>
+        <v>0.06177765122744387</v>
       </c>
       <c r="D157">
-        <v>2.673692936888701</v>
+        <v>0.05432017452300704</v>
       </c>
       <c r="E157">
-        <v>0.6618526991636204</v>
+        <v>2.501030178041399</v>
       </c>
       <c r="F157">
-        <v>0.3332668418564798</v>
+        <v>0.9492844913749404</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.05014490668094587</v>
+        <v>1.926318049660915</v>
       </c>
       <c r="C158">
-        <v>4.358110337475241</v>
+        <v>0.05598000102839273</v>
       </c>
       <c r="D158">
-        <v>2.660448352613542</v>
+        <v>0.05337122826231121</v>
       </c>
       <c r="E158">
-        <v>0.6571624766773655</v>
+        <v>2.488981685188527</v>
       </c>
       <c r="F158">
-        <v>0.32814447711429</v>
+        <v>0.9425976234617073</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.04883230533950229</v>
+        <v>1.916658882299421</v>
       </c>
       <c r="C159">
-        <v>4.34613475113711</v>
+        <v>0.05069802496811334</v>
       </c>
       <c r="D159">
-        <v>2.647243521462628</v>
+        <v>0.05245777905571852</v>
       </c>
       <c r="E159">
-        <v>0.6525029274490525</v>
+        <v>2.476956044316591</v>
       </c>
       <c r="F159">
-        <v>0.3230974185852576</v>
+        <v>0.9359454342036312</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.04755562130648255</v>
+        <v>1.907026298837551</v>
       </c>
       <c r="C160">
-        <v>4.334177457808344</v>
+        <v>0.0458998567058061</v>
       </c>
       <c r="D160">
-        <v>2.63407847199566</v>
+        <v>0.05157739310406304</v>
       </c>
       <c r="E160">
-        <v>0.6478738838958671</v>
+        <v>2.4649540289549</v>
       </c>
       <c r="F160">
-        <v>0.3181246649161311</v>
+        <v>0.9293281464116523</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.04631400892618873</v>
+        <v>1.897420780964046</v>
       </c>
       <c r="C161">
-        <v>4.322238599781202</v>
+        <v>0.04155296976502868</v>
       </c>
       <c r="D161">
-        <v>2.620953232227732</v>
+        <v>0.05072786179382786</v>
       </c>
       <c r="E161">
-        <v>0.6432751791838278</v>
+        <v>2.452976386943572</v>
       </c>
       <c r="F161">
-        <v>0.3132252253798682</v>
+        <v>0.9227459670832395</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.04510663608829575</v>
+        <v>1.887842788764499</v>
       </c>
       <c r="C162">
-        <v>4.310318315607772</v>
+        <v>0.03762469396318594</v>
       </c>
       <c r="D162">
-        <v>2.607867829304435</v>
+        <v>0.04990718152445966</v>
       </c>
       <c r="E162">
-        <v>0.6387066470008359</v>
+        <v>2.441023842176782</v>
       </c>
       <c r="F162">
-        <v>0.3083981220080352</v>
+        <v>0.9161990948846973</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.04393268290001096</v>
+        <v>1.878292756902689</v>
       </c>
       <c r="C163">
-        <v>4.298416728026162</v>
+        <v>0.03408269293157514</v>
       </c>
       <c r="D163">
-        <v>2.594822289889736</v>
+        <v>0.04911352163075056</v>
       </c>
       <c r="E163">
-        <v>0.6341681215027956</v>
+        <v>2.429097096560794</v>
       </c>
       <c r="F163">
-        <v>0.3036423856807799</v>
+        <v>0.9096877150218403</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.04279134258859423</v>
+        <v>1.868771102288867</v>
       </c>
       <c r="C164">
-        <v>4.286533969311987</v>
+        <v>0.03089537557053584</v>
       </c>
       <c r="D164">
-        <v>2.581816640433047</v>
+        <v>0.04834522484859762</v>
       </c>
       <c r="E164">
-        <v>0.6296594373687944</v>
+        <v>2.417196828196661</v>
       </c>
       <c r="F164">
-        <v>0.2989570574971427</v>
+        <v>0.9032120011882899</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.04168182200469439</v>
+        <v>1.859278228402612</v>
       </c>
       <c r="C165">
-        <v>4.274670165646587</v>
+        <v>0.02803224027694355</v>
       </c>
       <c r="D165">
-        <v>2.568850906644333</v>
+        <v>0.04760077091717611</v>
       </c>
       <c r="E165">
-        <v>0.6251804298060404</v>
+        <v>2.405323692562675</v>
       </c>
       <c r="F165">
-        <v>0.2943411877731986</v>
+        <v>0.8967721087477716</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.04060334037943043</v>
+        <v>1.849814519503098</v>
       </c>
       <c r="C166">
-        <v>4.262825438345348</v>
+        <v>0.02546415140615359</v>
       </c>
       <c r="D166">
-        <v>2.555925113684316</v>
+        <v>0.04687878142908219</v>
       </c>
       <c r="E166">
-        <v>0.6207309343837172</v>
+        <v>2.393478324614398</v>
       </c>
       <c r="F166">
-        <v>0.289793836110122</v>
+        <v>0.8903681898018826</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.03955513123012293</v>
+        <v>1.840380334495091</v>
       </c>
       <c r="C167">
-        <v>4.250999905302925</v>
+        <v>0.02316354583145255</v>
       </c>
       <c r="D167">
-        <v>2.543039286167273</v>
+        <v>0.04617799023737171</v>
       </c>
       <c r="E167">
-        <v>0.6163107871839406</v>
+        <v>2.381661337246914</v>
       </c>
       <c r="F167">
-        <v>0.2853140745073866</v>
+        <v>0.8840003831119262</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.03853644102248104</v>
+        <v>1.830976023183442</v>
       </c>
       <c r="C168">
-        <v>4.239193680627388</v>
+        <v>0.02110457023721998</v>
       </c>
       <c r="D168">
-        <v>2.530193447953741</v>
+        <v>0.04549724411974743</v>
       </c>
       <c r="E168">
-        <v>0.611919825079418</v>
+        <v>2.369873322087523</v>
       </c>
       <c r="F168">
-        <v>0.2809009840989968</v>
+        <v>0.877668817021009</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.03754652972149481</v>
+        <v>1.821601918813339</v>
       </c>
       <c r="C169">
-        <v>4.227406873221485</v>
+        <v>0.01926316625352356</v>
       </c>
       <c r="D169">
-        <v>2.517387622440256</v>
+        <v>0.04483548443246187</v>
       </c>
       <c r="E169">
-        <v>0.6075578853460185</v>
+        <v>2.358114851456564</v>
       </c>
       <c r="F169">
-        <v>0.2765536561382296</v>
+        <v>0.8713736057216307</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.03658467124768837</v>
+        <v>1.812258338362792</v>
       </c>
       <c r="C170">
-        <v>4.215639592266321</v>
+        <v>0.01761710286481313</v>
       </c>
       <c r="D170">
-        <v>2.504621832630637</v>
+        <v>0.04419173975788866</v>
       </c>
       <c r="E170">
-        <v>0.6032248057979769</v>
+        <v>2.346386477261638</v>
       </c>
       <c r="F170">
-        <v>0.2722711913895909</v>
+        <v>0.8651148556816644</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.03565015247850286</v>
+        <v>1.802945578684735</v>
       </c>
       <c r="C171">
-        <v>4.203891942689848</v>
+        <v>0.0161459668713235</v>
       </c>
       <c r="D171">
-        <v>2.491896100879971</v>
+        <v>0.04356512033879414</v>
       </c>
       <c r="E171">
-        <v>0.5989204247918966</v>
+        <v>2.334688731553829</v>
       </c>
       <c r="F171">
-        <v>0.2680526987139799</v>
+        <v>0.8588926648168066</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.03474227451048176</v>
+        <v>1.793663928475905</v>
       </c>
       <c r="C172">
-        <v>4.192164026634853</v>
+        <v>0.01483111992835622</v>
       </c>
       <c r="D172">
-        <v>2.479210448994408</v>
+        <v>0.04295480251286606</v>
       </c>
       <c r="E172">
-        <v>0.5946445811864309</v>
+        <v>2.323022128165197</v>
       </c>
       <c r="F172">
-        <v>0.2638973001060748</v>
+        <v>0.8527071207147842</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.03386035169188663</v>
+        <v>1.784413660644123</v>
       </c>
       <c r="C173">
-        <v>4.180455943605041</v>
+        <v>0.01365563001682084</v>
       </c>
       <c r="D173">
-        <v>2.466564898232809</v>
+        <v>0.04236003173615227</v>
       </c>
       <c r="E173">
-        <v>0.5903971141821029</v>
+        <v>2.311387162035526</v>
       </c>
       <c r="F173">
-        <v>0.2598041262767941</v>
+        <v>0.846558300414304</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.03300371187017764</v>
+        <v>1.775195033888106</v>
       </c>
       <c r="C174">
-        <v>4.168767787733832</v>
+        <v>0.01260418437688822</v>
       </c>
       <c r="D174">
-        <v>2.453959468924763</v>
+        <v>0.04178010671740179</v>
       </c>
       <c r="E174">
-        <v>0.5861778638687624</v>
+        <v>2.299784309616542</v>
       </c>
       <c r="F174">
-        <v>0.2557723178731388</v>
+        <v>0.8404462711915747</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.03217169678277246</v>
+        <v>1.766008292063547</v>
       </c>
       <c r="C175">
-        <v>4.157099651128391</v>
+        <v>0.01166298979341623</v>
       </c>
       <c r="D175">
-        <v>2.441394181062884</v>
+        <v>0.04121438209855974</v>
       </c>
       <c r="E175">
-        <v>0.5819866707466005</v>
+        <v>2.288214030255653</v>
       </c>
       <c r="F175">
-        <v>0.2518010252472969</v>
+        <v>0.8343710939398811</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.03136366104317283</v>
+        <v>1.756853669732266</v>
       </c>
       <c r="C176">
-        <v>4.14545162642594</v>
+        <v>0.01081966600647444</v>
       </c>
       <c r="D176">
-        <v>2.428869054275858</v>
+        <v>0.04066225729987017</v>
       </c>
       <c r="E176">
-        <v>0.5778233758676234</v>
+        <v>2.276676765808588</v>
       </c>
       <c r="F176">
-        <v>0.2478894054236146</v>
+        <v>0.8283328201635715</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.03057897322120942</v>
+        <v>1.747731388535117</v>
       </c>
       <c r="C177">
-        <v>4.133823802342807</v>
+        <v>0.01006313576762165</v>
       </c>
       <c r="D177">
-        <v>2.416384107480151</v>
+        <v>0.04012317684182198</v>
       </c>
       <c r="E177">
-        <v>0.57368782083894</v>
+        <v>2.265172940968725</v>
       </c>
       <c r="F177">
-        <v>0.2440366293979891</v>
+        <v>0.8223314928341735</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.02981701492473308</v>
+        <v>1.738641656832661</v>
       </c>
       <c r="C178">
-        <v>4.12221626539869</v>
+        <v>0.009383516701201586</v>
       </c>
       <c r="D178">
-        <v>2.403939359025772</v>
+        <v>0.03959662156020657</v>
       </c>
       <c r="E178">
-        <v>0.5695798478260498</v>
+        <v>2.25370296445201</v>
       </c>
       <c r="F178">
-        <v>0.2402418762935695</v>
+        <v>0.8163671452684653</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.02907718086769149</v>
+        <v>1.72958467175537</v>
       </c>
       <c r="C179">
-        <v>4.110629100041971</v>
+        <v>0.008772010925024347</v>
       </c>
       <c r="D179">
-        <v>2.391534826696045</v>
+        <v>0.03908210594386753</v>
       </c>
       <c r="E179">
-        <v>0.5654992994051312</v>
+        <v>2.24226722877531</v>
       </c>
       <c r="F179">
-        <v>0.2365043348863396</v>
+        <v>0.8104398054431508</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.02835887919765173</v>
+        <v>1.720560621579425</v>
       </c>
       <c r="C180">
-        <v>4.099062380304571</v>
+        <v>0.00822080903078653</v>
       </c>
       <c r="D180">
-        <v>2.379170527294511</v>
+        <v>0.03857918027593581</v>
       </c>
       <c r="E180">
-        <v>0.5614460188927151</v>
+        <v>2.23086611044394</v>
       </c>
       <c r="F180">
-        <v>0.2328232035747564</v>
+        <v>0.8045494930290518</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.02766153020657191</v>
+        <v>1.711569683641591</v>
       </c>
       <c r="C181">
-        <v>4.087516187697986</v>
+        <v>0.007722981373550567</v>
       </c>
       <c r="D181">
-        <v>2.366846477342195</v>
+        <v>0.03808742055593196</v>
       </c>
       <c r="E181">
-        <v>0.5574198501271719</v>
+        <v>2.219499971208596</v>
       </c>
       <c r="F181">
-        <v>0.2291976876558758</v>
+        <v>0.7986962205278254</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.0269845679579037</v>
+        <v>1.702612022055526</v>
       </c>
       <c r="C182">
-        <v>4.075990599434785</v>
+        <v>0.007272406983539923</v>
       </c>
       <c r="D182">
-        <v>2.354562692903806</v>
+        <v>0.03760642995049836</v>
       </c>
       <c r="E182">
-        <v>0.5534206374985978</v>
+        <v>2.208169157818888</v>
       </c>
       <c r="F182">
-        <v>0.2256270048569005</v>
+        <v>0.7928799910710496</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.02632743925165832</v>
+        <v>1.693687793749165</v>
       </c>
       <c r="C183">
-        <v>4.064485690032873</v>
+        <v>0.006863649103237729</v>
       </c>
       <c r="D183">
-        <v>2.3423191893249</v>
+        <v>0.03713583489714704</v>
       </c>
       <c r="E183">
-        <v>0.5494482259655966</v>
+        <v>2.196874002220748</v>
       </c>
       <c r="F183">
-        <v>0.2221103815135047</v>
+        <v>0.7871008036018481</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.025689603325469</v>
+        <v>1.684797146543608</v>
       </c>
       <c r="C184">
-        <v>4.053001532087199</v>
+        <v>0.006491926131506425</v>
       </c>
       <c r="D184">
-        <v>2.330115981356039</v>
+        <v>0.03667528621359726</v>
       </c>
       <c r="E184">
-        <v>0.5455024610581586</v>
+        <v>2.185614822688549</v>
       </c>
       <c r="F184">
-        <v>0.218647053128454</v>
+        <v>0.7813586496879635</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.02507053055357291</v>
+        <v>1.675940218841544</v>
       </c>
       <c r="C185">
-        <v>4.041538195000506</v>
+        <v>0.006153015587717649</v>
       </c>
       <c r="D185">
-        <v>2.317953083150697</v>
+        <v>0.03622445260546293</v>
       </c>
       <c r="E185">
-        <v>0.5415831888081545</v>
+        <v>2.174391923678552</v>
       </c>
       <c r="F185">
-        <v>0.2152362644833022</v>
+        <v>0.7756535145358002</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.02446970585693058</v>
+        <v>1.667117136741982</v>
       </c>
       <c r="C186">
-        <v>4.030095742012315</v>
+        <v>0.00584320758577626</v>
       </c>
       <c r="D186">
-        <v>2.305830508042524</v>
+        <v>0.03578302071241617</v>
       </c>
       <c r="E186">
-        <v>0.5376902558516632</v>
+        <v>2.163205595976669</v>
       </c>
       <c r="F186">
-        <v>0.2118772682662963</v>
+        <v>0.7699853753495074</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.02388662593378946</v>
+        <v>1.658328021977469</v>
       </c>
       <c r="C187">
-        <v>4.018674241799785</v>
+        <v>0.005559232028880466</v>
       </c>
       <c r="D187">
-        <v>2.293748268944845</v>
+        <v>0.03535069846800984</v>
       </c>
       <c r="E187">
-        <v>0.533823509459288</v>
+        <v>2.152056117788606</v>
       </c>
       <c r="F187">
-        <v>0.2085693273088366</v>
+        <v>0.7643542042800459</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.02332079838206715</v>
+        <v>1.64957298687079</v>
       </c>
       <c r="C188">
-        <v>4.007273758221094</v>
+        <v>0.005298209152867004</v>
       </c>
       <c r="D188">
-        <v>2.281706378189245</v>
+        <v>0.03492720578868123</v>
       </c>
       <c r="E188">
-        <v>0.5299827974437197</v>
+        <v>2.140943754624247</v>
       </c>
       <c r="F188">
-        <v>0.2053117136880528</v>
+        <v>0.7587599682935208</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.0227717417254543</v>
+        <v>1.640852135380215</v>
       </c>
       <c r="C189">
-        <v>3.995894353325996</v>
+        <v>0.00505759856044878</v>
       </c>
       <c r="D189">
-        <v>2.269704847436303</v>
+        <v>0.03451227273671056</v>
       </c>
       <c r="E189">
-        <v>0.5261679681985325</v>
+        <v>2.129868759351723</v>
       </c>
       <c r="F189">
-        <v>0.2021037081845611</v>
+        <v>0.7532026282793025</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.02223898862682801</v>
+        <v>1.632165562212004</v>
       </c>
       <c r="C190">
-        <v>3.984536087422131</v>
+        <v>0.004835170368304628</v>
       </c>
       <c r="D190">
-        <v>2.257743687725649</v>
+        <v>0.03410563900942953</v>
       </c>
       <c r="E190">
-        <v>0.5223788707007415</v>
+        <v>2.118831373362503</v>
       </c>
       <c r="F190">
-        <v>0.1989446005132755</v>
+        <v>0.7476821387619115</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.02172208247530126</v>
+        <v>1.623513357068837</v>
       </c>
       <c r="C191">
-        <v>3.973199017557864</v>
+        <v>0.00462896434686106</v>
       </c>
       <c r="D191">
-        <v>2.245822909472965</v>
+        <v>0.03370707379361488</v>
       </c>
       <c r="E191">
-        <v>0.5186153544737568</v>
+        <v>2.107831826405564</v>
       </c>
       <c r="F191">
-        <v>0.1958336885898557</v>
+        <v>0.7421984483095374</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.02122057649033363</v>
+        <v>1.614895601806464</v>
       </c>
       <c r="C192">
-        <v>3.961883199540517</v>
+        <v>0.004437256351947022</v>
       </c>
       <c r="D192">
-        <v>2.233942522433422</v>
+        <v>0.03331633841849068</v>
       </c>
       <c r="E192">
-        <v>0.5148772695503282</v>
+        <v>2.096870336537021</v>
       </c>
       <c r="F192">
-        <v>0.1927702792839114</v>
+        <v>0.7367515019609471</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.02073403550663692</v>
+        <v>1.606312370541221</v>
       </c>
       <c r="C193">
-        <v>3.950588688893254</v>
+        <v>0.004258532513377625</v>
       </c>
       <c r="D193">
-        <v>2.222102535763601</v>
+        <v>0.0329332133166123</v>
       </c>
       <c r="E193">
-        <v>0.5111644667102072</v>
+        <v>2.085947111404722</v>
       </c>
       <c r="F193">
-        <v>0.1897536887239135</v>
+        <v>0.7313412391006198</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.02026203610278689</v>
+        <v>1.597763730454946</v>
       </c>
       <c r="C194">
-        <v>3.939315538735503</v>
+        <v>0.004091457021823534</v>
       </c>
       <c r="D194">
-        <v>2.210302957985353</v>
+        <v>0.03255749161265812</v>
       </c>
       <c r="E194">
-        <v>0.5074767972530418</v>
+        <v>2.075062347995536</v>
       </c>
       <c r="F194">
-        <v>0.1867832413727582</v>
+        <v>0.7259675940285314</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.01980416516035325</v>
+        <v>1.589249743568788</v>
       </c>
       <c r="C195">
-        <v>3.928063800626242</v>
+        <v>0.003934855554870512</v>
       </c>
       <c r="D195">
-        <v>2.198543796976649</v>
+        <v>0.03218897245025678</v>
       </c>
       <c r="E195">
-        <v>0.5038141130688755</v>
+        <v>2.064216232536414</v>
       </c>
       <c r="F195">
-        <v>0.1838582702753119</v>
+        <v>0.7206304949729896</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.01936001919891986</v>
+        <v>1.580770465333715</v>
       </c>
       <c r="C196">
-        <v>3.916833524619519</v>
+        <v>0.003787690831126976</v>
       </c>
       <c r="D196">
-        <v>2.186825059974596</v>
+        <v>0.03182746157211561</v>
       </c>
       <c r="E196">
-        <v>0.5001762666403111</v>
+        <v>2.053408941793403</v>
       </c>
       <c r="F196">
-        <v>0.1809781166554029</v>
+        <v>0.7153298675021265</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.01892920581632036</v>
+        <v>1.572325943797174</v>
       </c>
       <c r="C197">
-        <v>3.90562475809077</v>
+        <v>0.003649053605242648</v>
       </c>
       <c r="D197">
-        <v>2.175146753572295</v>
+        <v>0.03147277535409045</v>
       </c>
       <c r="E197">
-        <v>0.4965631110446776</v>
+        <v>2.042640642815761</v>
       </c>
       <c r="F197">
-        <v>0.1781421299464567</v>
+        <v>0.7100656321276009</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.01851134260798323</v>
+        <v>1.563916222171216</v>
       </c>
       <c r="C198">
-        <v>3.894437548429904</v>
+        <v>0.003518142379776099</v>
       </c>
       <c r="D198">
-        <v>2.163508883719917</v>
+        <v>0.03112473663041041</v>
       </c>
       <c r="E198">
-        <v>0.492974499771728</v>
+        <v>2.031911492821229</v>
       </c>
       <c r="F198">
-        <v>0.1753496686073217</v>
+        <v>0.7048377051612956</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.01810605702729749</v>
+        <v>1.55554133844133</v>
       </c>
       <c r="C199">
-        <v>3.883271941235475</v>
+        <v>0.003394248832322646</v>
       </c>
       <c r="D199">
-        <v>2.151911455713002</v>
+        <v>0.03078317480959107</v>
       </c>
       <c r="E199">
-        <v>0.4894102871556839</v>
+        <v>2.021221640366534</v>
       </c>
       <c r="F199">
-        <v>0.1726000990856728</v>
+        <v>0.6996459972810762</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.01771298631519193</v>
+        <v>1.547201325041392</v>
       </c>
       <c r="C200">
-        <v>3.872127980690838</v>
+        <v>0.003276745785546463</v>
       </c>
       <c r="D200">
-        <v>2.140354474194469</v>
+        <v>0.03044792467677252</v>
       </c>
       <c r="E200">
-        <v>0.485870328033193</v>
+        <v>2.010571225224839</v>
       </c>
       <c r="F200">
-        <v>0.1698927960494583</v>
+        <v>0.694490416854793</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.01733177721012081</v>
+        <v>1.538896207234314</v>
       </c>
       <c r="C201">
-        <v>3.861005709685165</v>
+        <v>0.003165080440290334</v>
       </c>
       <c r="D201">
-        <v>2.12883794315146</v>
+        <v>0.0301188277736591</v>
       </c>
       <c r="E201">
-        <v>0.4823544778372591</v>
+        <v>1.999960378191148</v>
       </c>
       <c r="F201">
-        <v>0.1672271420936267</v>
+        <v>0.6893708679539455</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.01696208583800847</v>
+        <v>1.530626007460478</v>
       </c>
       <c r="C202">
-        <v>3.849905169406204</v>
+        <v>0.003058761871237253</v>
       </c>
       <c r="D202">
-        <v>2.117361865911665</v>
+        <v>0.02979572920781792</v>
       </c>
       <c r="E202">
-        <v>0.4788625925997144</v>
+        <v>1.989389222134656</v>
       </c>
       <c r="F202">
-        <v>0.1646025272762781</v>
+        <v>0.6842872509441376</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.01660357734124666</v>
+        <v>1.522390742651245</v>
       </c>
       <c r="C203">
-        <v>3.838826398637991</v>
+        <v>0.002957354428987429</v>
       </c>
       <c r="D203">
-        <v>2.105926245140203</v>
+        <v>0.02947848047003493</v>
       </c>
       <c r="E203">
-        <v>0.4753945289529534</v>
+        <v>1.978857872009961</v>
       </c>
       <c r="F203">
-        <v>0.1620183506462115</v>
+        <v>0.6792394616782931</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.01625592546661701</v>
+        <v>1.514190424821113</v>
       </c>
       <c r="C204">
-        <v>3.82776943705649</v>
+        <v>0.002860472941368611</v>
       </c>
       <c r="D204">
-        <v>2.094531082797709</v>
+        <v>0.02916693921726018</v>
       </c>
       <c r="E204">
-        <v>0.4719501440252476</v>
+        <v>1.968366434626434</v>
       </c>
       <c r="F204">
-        <v>0.1594740187487274</v>
+        <v>0.6742273930181306</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.01591881336339124</v>
+        <v>1.506025060285691</v>
       </c>
       <c r="C205">
-        <v>3.816734322292936</v>
+        <v>0.002767774066164008</v>
       </c>
       <c r="D205">
-        <v>2.083176380219771</v>
+        <v>0.02886096559622964</v>
       </c>
       <c r="E205">
-        <v>0.4685292956269216</v>
+        <v>1.95791500952615</v>
       </c>
       <c r="F205">
-        <v>0.1569689459572867</v>
+        <v>0.6692509348951016</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.01559193255781941</v>
+        <v>1.49789465254088</v>
       </c>
       <c r="C206">
-        <v>3.805721090835471</v>
+        <v>0.002678954258136436</v>
       </c>
       <c r="D206">
-        <v>2.071862138058183</v>
+        <v>0.02856042875686722</v>
       </c>
       <c r="E206">
-        <v>0.4651318422027739</v>
+        <v>1.947503689144142</v>
       </c>
       <c r="F206">
-        <v>0.1545025543508901</v>
+        <v>0.6643099737987321</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.01527498299737249</v>
+        <v>1.489799200356382</v>
       </c>
       <c r="C207">
-        <v>3.794729778072381</v>
+        <v>0.002593740177056744</v>
       </c>
       <c r="D207">
-        <v>2.060588356284571</v>
+        <v>0.0282652001485966</v>
       </c>
       <c r="E207">
-        <v>0.4617576427660703</v>
+        <v>1.937132558488095</v>
       </c>
       <c r="F207">
-        <v>0.1520742731378541</v>
+        <v>0.659404392625646</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.01496767286730257</v>
+        <v>1.481738697915595</v>
       </c>
       <c r="C208">
-        <v>3.783760416944068</v>
+        <v>0.002511889069113891</v>
       </c>
       <c r="D208">
-        <v>2.049355034190493</v>
+        <v>0.02797515533270153</v>
       </c>
       <c r="E208">
-        <v>0.4584065569333652</v>
+        <v>1.926801695916954</v>
       </c>
       <c r="F208">
-        <v>0.1496835398594916</v>
+        <v>0.6545340708659135</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.01466971775206792</v>
+        <v>1.473713135090455</v>
       </c>
       <c r="C209">
-        <v>3.772813039854928</v>
+        <v>0.002433178029590353</v>
       </c>
       <c r="D209">
-        <v>2.03816217038419</v>
+        <v>0.02769017222073643</v>
       </c>
       <c r="E209">
-        <v>0.4550784449258471</v>
+        <v>1.916511173427665</v>
       </c>
       <c r="F209">
-        <v>0.1473297992910667</v>
+        <v>0.6496988861399412</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.01438084133786317</v>
+        <v>1.46572249880855</v>
       </c>
       <c r="C210">
-        <v>3.761887679150196</v>
+        <v>0.00235740998073651</v>
       </c>
       <c r="D210">
-        <v>2.027009762744914</v>
+        <v>0.02741013406007626</v>
       </c>
       <c r="E210">
-        <v>0.4517731675235857</v>
+        <v>1.906261056282942</v>
       </c>
       <c r="F210">
-        <v>0.1450125036443211</v>
+        <v>0.6448987129043742</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.01410077540787323</v>
+        <v>1.457766772008072</v>
       </c>
       <c r="C211">
-        <v>3.750984365514042</v>
+        <v>0.002284408057545125</v>
       </c>
       <c r="D211">
-        <v>2.015897808513436</v>
+        <v>0.02713492834922446</v>
       </c>
       <c r="E211">
-        <v>0.4484905860790169</v>
+        <v>1.896051403642236</v>
       </c>
       <c r="F211">
-        <v>0.1427311124938988</v>
+        <v>0.6401334227987938</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.01382925892019425</v>
+        <v>1.449845933318888</v>
       </c>
       <c r="C212">
-        <v>3.740103128622169</v>
+        <v>0.002214009539094449</v>
       </c>
       <c r="D212">
-        <v>2.004826304219924</v>
+        <v>0.02686444466236737</v>
       </c>
       <c r="E212">
-        <v>0.4452305626592459</v>
+        <v>1.885882268968449</v>
       </c>
       <c r="F212">
-        <v>0.1404850924377661</v>
+        <v>0.6354028839061883</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.01356603810003577</v>
+        <v>1.441959958271654</v>
       </c>
       <c r="C213">
-        <v>3.729243997176093</v>
+        <v>0.002146072753010117</v>
       </c>
       <c r="D213">
-        <v>1.993795245694507</v>
+        <v>0.02659857619773144</v>
       </c>
       <c r="E213">
-        <v>0.4419929598860533</v>
+        <v>1.875753699639844</v>
       </c>
       <c r="F213">
-        <v>0.1382739175848615</v>
+        <v>0.6307069631637947</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.01331086625325705</v>
+        <v>1.434108819359257</v>
       </c>
       <c r="C214">
-        <v>3.718406997069415</v>
+        <v>0.002080465125828232</v>
       </c>
       <c r="D214">
-        <v>1.982804628065806</v>
+        <v>0.02633721939877936</v>
       </c>
       <c r="E214">
-        <v>0.4387776409876382</v>
+        <v>1.865665737436624</v>
       </c>
       <c r="F214">
-        <v>0.1360970690806437</v>
+        <v>0.6260455246689123</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.01306350366914865</v>
+        <v>1.426292485728834</v>
       </c>
       <c r="C215">
-        <v>3.707592155514575</v>
+        <v>0.002017069515437241</v>
       </c>
       <c r="D215">
-        <v>1.971854445757561</v>
+        <v>0.02608027320433846</v>
       </c>
       <c r="E215">
-        <v>0.4355844697996334</v>
+        <v>1.855618419039053</v>
       </c>
       <c r="F215">
-        <v>0.1339540351122246</v>
+        <v>0.6214184302708048</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.01282371724189793</v>
+        <v>1.418510922397279</v>
       </c>
       <c r="C216">
-        <v>3.696799498056414</v>
+        <v>0.001955776634145322</v>
       </c>
       <c r="D216">
-        <v>1.960944692499853</v>
+        <v>0.02582764110358084</v>
       </c>
       <c r="E216">
-        <v>0.4324133107560266</v>
+        <v>1.845611775633048</v>
       </c>
       <c r="F216">
-        <v>0.1318443108434522</v>
+        <v>0.6168255385535181</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.01259128042029291</v>
+        <v>1.410764092431559</v>
       </c>
       <c r="C217">
-        <v>3.686029049245794</v>
+        <v>0.001896485046446636</v>
       </c>
       <c r="D217">
-        <v>1.95007536129237</v>
+        <v>0.02557922773051761</v>
       </c>
       <c r="E217">
-        <v>0.4292640287909963</v>
+        <v>1.835645833272953</v>
       </c>
       <c r="F217">
-        <v>0.129767398318986</v>
+        <v>0.6122667071331486</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.01236597299724071</v>
+        <v>1.403051955722446</v>
       </c>
       <c r="C218">
-        <v>3.675280832732804</v>
+        <v>0.001839101843977356</v>
       </c>
       <c r="D218">
-        <v>1.93924644442724</v>
+        <v>0.02533494052435974</v>
       </c>
       <c r="E218">
-        <v>0.4261364896081836</v>
+        <v>1.825720613453196</v>
       </c>
       <c r="F218">
-        <v>0.127722806426759</v>
+        <v>0.6077417913171265</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.01214758091870003</v>
+        <v>1.395374469241527</v>
       </c>
       <c r="C219">
-        <v>3.664554871030142</v>
+        <v>0.001783547683340414</v>
       </c>
       <c r="D219">
-        <v>1.928457933478895</v>
+        <v>0.02509468965617638</v>
       </c>
       <c r="E219">
-        <v>0.4230305594552692</v>
+        <v>1.815836132455183</v>
       </c>
       <c r="F219">
-        <v>0.1257100508065282</v>
+        <v>0.6032506444626907</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.01193589661782059</v>
+        <v>1.387731586529077</v>
       </c>
       <c r="C220">
-        <v>3.653851185236806</v>
+        <v>0.001729738778458498</v>
       </c>
       <c r="D220">
-        <v>1.917709819300619</v>
+        <v>0.02485838997221706</v>
       </c>
       <c r="E220">
-        <v>0.4199461051879488</v>
+        <v>1.805992401794331</v>
       </c>
       <c r="F220">
-        <v>0.1237286537694062</v>
+        <v>0.5987931174737292</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.0117307200382815</v>
+        <v>1.380123259408501</v>
       </c>
       <c r="C221">
-        <v>3.643169796640476</v>
+        <v>0.00167759588525345</v>
       </c>
       <c r="D221">
-        <v>1.907002092023182</v>
+        <v>0.02462595550150522</v>
       </c>
       <c r="E221">
-        <v>0.4168829942706424</v>
+        <v>1.796189429348855</v>
       </c>
       <c r="F221">
-        <v>0.1217781442266517</v>
+        <v>0.5943690597466755</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.01153185394856121</v>
+        <v>1.372549436886693</v>
       </c>
       <c r="C222">
-        <v>3.632510725255671</v>
+        <v>0.001627059937668335</v>
       </c>
       <c r="D222">
-        <v>1.896334741117665</v>
+        <v>0.0243973032799648</v>
       </c>
       <c r="E222">
-        <v>0.413841094777204</v>
+        <v>1.786427218649804</v>
       </c>
       <c r="F222">
-        <v>0.1198580577105854</v>
+        <v>0.589978319278016</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.01133910779714063</v>
+        <v>1.365010065273331</v>
       </c>
       <c r="C223">
-        <v>3.621873990279732</v>
+        <v>0.001578062340591717</v>
       </c>
       <c r="D223">
-        <v>1.885707755233112</v>
+        <v>0.02417235348214129</v>
       </c>
       <c r="E223">
-        <v>0.4108202752919993</v>
+        <v>1.776705769339361</v>
       </c>
       <c r="F223">
-        <v>0.1179679361561656</v>
+        <v>0.5856207422861517</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.01115229638596893</v>
+        <v>1.357505088220113</v>
       </c>
       <c r="C224">
-        <v>3.611259610116309</v>
+        <v>0.001530545988554121</v>
       </c>
       <c r="D224">
-        <v>1.875121122321752</v>
+        <v>0.02395102945810123</v>
       </c>
       <c r="E224">
-        <v>0.4078204051096547</v>
+        <v>1.76702507552777</v>
       </c>
       <c r="F224">
-        <v>0.1161073278115814</v>
+        <v>0.5812961731524914</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.01097123969395053</v>
+        <v>1.350034447661695</v>
       </c>
       <c r="C225">
-        <v>3.600667601949782</v>
+        <v>0.00148445877568705</v>
       </c>
       <c r="D225">
-        <v>1.864574829600867</v>
+        <v>0.02373325413035409</v>
       </c>
       <c r="E225">
-        <v>0.4048413541277388</v>
+        <v>1.757385127199093</v>
       </c>
       <c r="F225">
-        <v>0.1142757872684198</v>
+        <v>0.5770044544983624</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.0107957649691158</v>
+        <v>1.342598083135896</v>
       </c>
       <c r="C226">
-        <v>3.590097982417238</v>
+        <v>0.001439750547169907</v>
       </c>
       <c r="D226">
-        <v>1.854068863549668</v>
+        <v>0.02351895313678208</v>
       </c>
       <c r="E226">
-        <v>0.4018829928340377</v>
+        <v>1.747785913383728</v>
       </c>
       <c r="F226">
-        <v>0.1124728753450472</v>
+        <v>0.5727454281953887</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.01062570411592634</v>
+        <v>1.335195931660614</v>
       </c>
       <c r="C227">
-        <v>3.579550767668877</v>
+        <v>0.001396369938623854</v>
       </c>
       <c r="D227">
-        <v>1.843603209912067</v>
+        <v>0.02330805527703933</v>
       </c>
       <c r="E227">
-        <v>0.3989451923246177</v>
+        <v>1.738227418614664</v>
       </c>
       <c r="F227">
-        <v>0.1106981590113402</v>
+        <v>0.5685189345365059</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.0104608914042125</v>
+        <v>1.327827928307893</v>
       </c>
       <c r="C228">
-        <v>3.569025972941847</v>
+        <v>0.001354271868040394</v>
       </c>
       <c r="D228">
-        <v>1.833177853767879</v>
+        <v>0.0231004907796205</v>
       </c>
       <c r="E228">
-        <v>0.3960278243042299</v>
+        <v>1.728709624288118</v>
       </c>
       <c r="F228">
-        <v>0.1089512113134178</v>
+        <v>0.5643248124685892</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.01030116709774553</v>
+        <v>1.320494006394494</v>
       </c>
       <c r="C229">
-        <v>3.558523612758753</v>
+        <v>0.001313413639559566</v>
       </c>
       <c r="D229">
-        <v>1.822792779338202</v>
+        <v>0.02289619089015344</v>
       </c>
       <c r="E229">
-        <v>0.3931307610313182</v>
+        <v>1.719232505811451</v>
       </c>
       <c r="F229">
-        <v>0.1072316112983726</v>
+        <v>0.5601628990933393</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.01014637598216265</v>
+        <v>1.313194097226035</v>
       </c>
       <c r="C230">
-        <v>3.548043700948392</v>
+        <v>0.001273752261921588</v>
       </c>
       <c r="D230">
-        <v>1.812447970140565</v>
+        <v>0.02269508893651021</v>
       </c>
       <c r="E230">
-        <v>0.3902538753730357</v>
+        <v>1.709796034787303</v>
       </c>
       <c r="F230">
-        <v>0.1055389446668875</v>
+        <v>0.5560330312357926</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.009996367204787016</v>
+        <v>1.305928129738632</v>
       </c>
       <c r="C231">
-        <v>3.537586249854277</v>
+        <v>0.001235248642952289</v>
       </c>
       <c r="D231">
-        <v>1.8021434089425</v>
+        <v>0.02249712087236329</v>
       </c>
       <c r="E231">
-        <v>0.3873970408770055</v>
+        <v>1.70040018417494</v>
       </c>
       <c r="F231">
-        <v>0.1038728020825621</v>
+        <v>0.5519350443517717</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.009850998295508838</v>
+        <v>1.298696031569036</v>
       </c>
       <c r="C232">
-        <v>3.527151272169419</v>
+        <v>0.00119786559312376</v>
       </c>
       <c r="D232">
-        <v>1.791879077758681</v>
+        <v>0.0223022234248902</v>
       </c>
       <c r="E232">
-        <v>0.3845601316581375</v>
+        <v>1.691044922092439</v>
       </c>
       <c r="F232">
-        <v>0.1022327801711114</v>
+        <v>0.5478687729091752</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.009710126551160166</v>
+        <v>1.291497728550683</v>
       </c>
       <c r="C233">
-        <v>3.516738779564684</v>
+        <v>0.001161566571659785</v>
       </c>
       <c r="D233">
-        <v>1.781654957857633</v>
+        <v>0.02211033505955203</v>
       </c>
       <c r="E233">
-        <v>0.381743022437583</v>
+        <v>1.681730213976029</v>
       </c>
       <c r="F233">
-        <v>0.100618481370383</v>
+        <v>0.5438340497224564</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.009573614009209482</v>
+        <v>1.28433314479601</v>
       </c>
       <c r="C234">
-        <v>3.50634878305007</v>
+        <v>0.001126317539909277</v>
       </c>
       <c r="D234">
-        <v>1.771471029823263</v>
+        <v>0.02192139574196388</v>
       </c>
       <c r="E234">
-        <v>0.3789455885428437</v>
+        <v>1.672456020044273</v>
       </c>
       <c r="F234">
-        <v>0.09902951375923261</v>
+        <v>0.5398307074331439</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.009441327156844868</v>
+        <v>1.277202202389582</v>
       </c>
       <c r="C235">
-        <v>3.495981293004357</v>
+        <v>0.00109208553348444</v>
       </c>
       <c r="D235">
-        <v>1.761327273370601</v>
+        <v>0.02173534611155614</v>
       </c>
       <c r="E235">
-        <v>0.3761677058889168</v>
+        <v>1.663222297121011</v>
       </c>
       <c r="F235">
-        <v>0.09746549098295247</v>
+        <v>0.5358585776764065</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.009313136288438047</v>
+        <v>1.270104822384481</v>
       </c>
       <c r="C236">
-        <v>3.485636318976627</v>
+        <v>0.001058840318608986</v>
       </c>
       <c r="D236">
-        <v>1.751223667496764</v>
+        <v>0.02155212894648471</v>
       </c>
       <c r="E236">
-        <v>0.3734092509235502</v>
+        <v>1.654029003390267</v>
       </c>
       <c r="F236">
-        <v>0.09592603217869961</v>
+        <v>0.5319174912826353</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.009188915933885095</v>
+        <v>1.263040924187115</v>
       </c>
       <c r="C237">
-        <v>3.475313869543938</v>
+        <v>0.001026552631006559</v>
       </c>
       <c r="D237">
-        <v>1.741160190435504</v>
+        <v>0.02137168795599591</v>
       </c>
       <c r="E237">
-        <v>0.3706701008238695</v>
+        <v>1.64487609272665</v>
       </c>
       <c r="F237">
-        <v>0.09441076204511921</v>
+        <v>0.5280072779499236</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.009068547556776226</v>
+        <v>1.256010425660882</v>
       </c>
       <c r="C238">
-        <v>3.465013953418833</v>
+        <v>0.0009951939481588346</v>
       </c>
       <c r="D238">
-        <v>1.731136819654618</v>
+        <v>0.02119396876688542</v>
       </c>
       <c r="E238">
-        <v>0.3679501333188537</v>
+        <v>1.63576351663398</v>
       </c>
       <c r="F238">
-        <v>0.09291931252301969</v>
+        <v>0.5241277668469967</v>
       </c>
     </row>
   </sheetData>
